--- a/public/tu duy phan tich.xlsx
+++ b/public/tu duy phan tich.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="phuong phap phan tich" sheetId="3" r:id="rId2"/>
+    <sheet name="36 kế" sheetId="4" r:id="rId3"/>
+    <sheet name="thuyet phuc" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'phuong phap phan tich'!$D$1:$F$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$D$1:$F$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'thuyet phuc'!$A$1:$G$23</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="377">
   <si>
     <t>STT</t>
   </si>
@@ -116,6 +118,9 @@
     <t>Ngôn ngữ</t>
   </si>
   <si>
+    <t>vi</t>
+  </si>
+  <si>
     <t>Tư duy phân tích</t>
   </si>
   <si>
@@ -411,36 +416,6 @@
   </si>
   <si>
     <t>Giải pháp sáng tạo tốt cùng xấu đây</t>
-  </si>
-  <si>
-    <t>Tuyệt vời! Dưới đây là danh sách các câu hỏi từ Phần 2: "Bắt đầu - những bước đầu tiên" trong các nguồn được cung cấp, được định dạng theo yêu cầu của bạn ở định dạng CSV với dấu phân cách là ký tự gạch đứng (|).</t>
-  </si>
-  <si>
-    <t>Khía cạnh phân tích|định nghĩa|câu hỏi</t>
-  </si>
-  <si>
-    <t>Tư duy về Mục đích|Mục đích là mục tiêu bạn đang nỗ lực đạt đến, có thể là chức năng, động cơ, ý đồ. Mục tiêu có thể là phần ánh xạ hay những thứ ưa thích của ta.|Đâu là mục đích của tôi, của họ khi làm _____?; Đâu là mục tiêu của bài này (nhiệm vụ, công việc, thí nghiệm, chính sách, chiến lược, v.v)?; Ta có phải tra vấn, làm rõ, hiệu chỉnh mục đích (mục tiêu) của mình không?; Tại sao bạn nói...?; Đâu là mục tiêu trung tâm của bạn theo hướng tư duy này?; Đâu là mục đích của buổi họp (chương, mối quan hệ, hành động...) này?; Mục đích của giáo dục là gì?; Đâu là chức năng của _____ (hệ thống cơ thể, máy móc, công cụ, chính sách kinh tế, cây cối, hệ sinh thái)?</t>
-  </si>
-  <si>
-    <t>Phát biểu Câu hỏi|Câu hỏi đặt ra vấn đề và hướng đạo cho tư duy, cần đủ rõ ràng và chính xác để hướng đạo tư duy hiệu quả.|Tôi đang cố gắng trả lời câu hỏi nào?; Những câu hỏi quan trọng nào đang nằm trong vấn đề này?; Có cách nào tốt hơn để đưa ra câu hỏi không?; Câu hỏi có rõ ràng? Có phức hợp?; Tôi không hoàn toàn chắc bạn đang đặt ra câu hỏi gì. Bạn có thể giải thích nó không?; Câu hỏi trọng tâm là thế nào? Bạn thấy câu hỏi này thế nào?; Đây là loại câu hỏi gì? Lịch sử? Khoa học? Đạo đức? Chính trị? Kinh tế? Hay...?; Bộ môn nào này đề cập đến những câu hỏi quan trọng nào?; Ta phải làm gì để trả lời câu hỏi này?</t>
-  </si>
-  <si>
-    <t>Thu thập Thông tin|Thông tin gồm những sự kiện, dữ kiện, bằng chứng hay kinh nghiệm dùng để tìm ra điều gì đó; không nhất thiết đúng đắn hay chính xác ban đầu; cần chính xác và liên quan đến vấn đề.|Tôi cần thông tin gì để trả lời câu hỏi này?; Những dữ kiện nào có liên quan đến vấn đề này?; Ta cần thu thập thêm thông tin không?; Thông tin có liên quan đến mục đích hay mục tiêu của ta không?; Ta đưa ra bình luận này dựa trên thông tin nào?; Kinh nghiệm nào thuyết phục ta về điều này? Kinh nghiệm của ta có thể đã bị bóp méo không?; Làm sao biết thông tin (dữ kiện, chứng cứ) này đúng?; Bạn có bỏ qua bất kỳ thông tin quan trọng nào mình cần phải xem xét không?</t>
-  </si>
-  <si>
-    <t>Chú ý các Suy luận|Suy luận là diễn giải hay kết luận bạn sẽ đạt đến, là điều tâm trí thực hiện để tìm ra điều gì đó, phải nảy sinh lô gic từ bằng chứng.|Tôi đang đi đến những kết luận nào?; Suy luận của tôi có lô gic không?; Tôi cần xem xét những kết luận khác không?; Diễn giải này có nghĩa gì không?; Giải pháp của chúng ta có tất yếu nảy sinh từ những dữ kiện của ta không?; Bạn đạt đến kết luận đó như thế nào?; Bạn đạt cơ sở cho suy luận của mình trên điều gì?; Có kết luận hợp lý khác không?; Với tất cả các sự kiện này, đâu là kết luận tốt nhất có thể có?; Chúng ta sẽ diễn giải những dữ kiện này như thế nào?</t>
-  </si>
-  <si>
-    <t>Kiểm tra các Giả định|Giả định là những niềm tin bạn xem là đương nhiên, thường hoạt động ở cấp độ vô thức hay tiền vô thức.|Tôi đang xem điều gì là đương nhiên?; Tôi có giả định điều gì đó mà mình không cần không?; Giả định nào đang dẫn tôi đến kết luận này?; (Chính sách, chiến lược, giải thích...) này giả định điều gì...?; Chính xác thì các nhà xã hội học (các sử gia, nhà toán học, v.v.) xem điều gì là đương nhiên?; Tại sao bạn giả định...?; Điều gì đang được giả định trong lý thuyết này?; Đâu là một số giả định quan trọng của tôi về bạn cùng phòng, bạn bè, cha mẹ, giảng viên, đất nước của tôi?</t>
-  </si>
-  <si>
-    <t>Làm rõ các Khái niệm|Khái niệm là những ý niệm, lý thuyết, quy luật, nguyên tắc hay giả thiết sử dụng trong tư duy để tạo nghĩa cho các sự việc.|Tôi đang sử dụng khái niệm nào trong tư duy của mình? Khái niệm này có gây ra vấn đề cho tôi hay cho người khác không?; Tôi nghĩ đây là một lý thuyết hay, nhưng bạn có thể giải thích nó đầy đủ hơn không?; Đâu là giả thiết chính mà bạn dùng trong suy luận của mình?; Bạn có sử dụng thuật ngữ này theo cách dùng thông thường không?; Ta phải rút ra những đặc điểm chính nào trong suy luận ở vấn đề này?; Tác giả này đang sử dụng khái niệm gì trong tư duy của họ?; Có vấn đề gì với khái niệm đó không?; Bạn có thể nêu tên và giải thích một số nguyên tắc cơ bản của vật lý học (hóa học, xã hội học, v.v) không?</t>
-  </si>
-  <si>
-    <t>Hiểu Góc nhìn|Góc nhìn là "chỗ đứng" để nhìn và hiểu cái gì đó, gồm những gì bạn đang nhìn và cách bạn nhìn; dễ bị bóp méo khi nhìn các tình huống và vấn đề.|Tôi đang nhìn tình huống này như thế nào? Có cách nhìn khác mà tôi cần xem xét không?; Chính xác thì tôi đang tập trung vào điều gì? Và tôi đang nhìn nó như thế nào?; Quan niệm của tôi có phải là quan niệm hợp lý hay nhất không? Góc nhìn của tôi đã bỏ qua điều gì?; Có bao giờ tôi xem xét cách người Đức (người Nhật, người Hồi giáo, người Nam Mỹ, v.v.) nhìn vấn đề này chưa?; Trong những quan điểm có thể có này, quan điểm nào có nghĩa nhất đối với tình huống này?; Tôi có thường học hỏi những quan điểm đang thách thức nghiệm trong đến những niềm tin của mình không?; Góc nhìn của tác giả truyện này là gì?; Tôi có khó khăn trong việc nhìn tình huống này từ một quan điểm bất đồng với mình không?; Tôi có giả định một cách thiên lệch rằng góc nhìn của chính quyền của tôi là chính đáng?</t>
-  </si>
-  <si>
-    <t>Tư duy thấu suốt các Hàm ý|Hàm ý là những tuyên bố chân lý nảy sinh lô gic từ những tuyên bố hay chân lý khác (từ tư tưởng) hoặc hệ quả từ hành động.|Nếu tôi quyết định làm “X”, điều gì có thể sẽ xảy ra?; Nếu tôi quyết định không làm “X”, điều gì có thể sẽ xảy ra?; Bạn hàm ý gì khi nói điều đó?; Điều gì có thể xảy ra nếu chúng ta làm điều này mà không làm điều kia?; Bạn đang hàm ý rằng...?; Những hàm ý của quyết định này có tầm quan trọng như thế nào?; Điều gì, nếu có, được hàm ý qua sự kiện rằng tỷ lệ người nghèo ở tù thì cao hơn người giàu?</t>
   </si>
   <si>
     <t>Thông tin thật giả tại sao.
@@ -451,19 +426,772 @@
 Giải pháp sáng tạo, tốt cùng xấu đây.</t>
   </si>
   <si>
-    <t>tổng hợp</t>
-  </si>
-  <si>
-    <t>Giả định</t>
-  </si>
-  <si>
-    <t>Hiệu ứng, cảm linh.</t>
-  </si>
-  <si>
     <t>Chính xác thì tôi đang tập trung vào điều gì? Và tôi đang nhìn nó như thế nào?</t>
   </si>
   <si>
-    <t>en</t>
+    <t>2_thông tin thật giả_Thu thập Thông tin</t>
+  </si>
+  <si>
+    <t>3_tại sao_Tư duy về Mục đích</t>
+  </si>
+  <si>
+    <t>4_ảnh hưởng lợi hại quanh mình tương lai_Chú ý các Suy luận</t>
+  </si>
+  <si>
+    <t>5_Khi ai ở cái làm sao. Muốn được như vậy_Phát biểu Câu hỏi</t>
+  </si>
+  <si>
+    <t>6_Nếu là_Hiểu Góc nhìn</t>
+  </si>
+  <si>
+    <t>7_Giả định_Kiểm tra các Giả định</t>
+  </si>
+  <si>
+    <t>8_Hiệu ứng, cảm linh._Làm rõ các Khái niệm</t>
+  </si>
+  <si>
+    <t>9_Giải pháp sáng tạo tốt cùng xấu đây_Tư duy thấu suốt các Hàm ý</t>
+  </si>
+  <si>
+    <t>1_tổng hợp_Thu thập Thông tin</t>
+  </si>
+  <si>
+    <t>Số thứ tự</t>
+  </si>
+  <si>
+    <t>Tên kế</t>
+  </si>
+  <si>
+    <t>Điều kiện thi hành kế</t>
+  </si>
+  <si>
+    <t>Cách thi hành kế</t>
+  </si>
+  <si>
+    <t>Dương đông kích tây</t>
+  </si>
+  <si>
+    <t>Cần đánh lạc hướng địch, khi địch mạnh hoặc tập trung lực lượng</t>
+  </si>
+  <si>
+    <t>Tạo tin đồn, gây rối, phân tán lực lượng địch, bí mật tấn công vào điểm yếu</t>
+  </si>
+  <si>
+    <t>Điệu hổ ly sơn</t>
+  </si>
+  <si>
+    <t>Khi địch ở vị trí mạnh, khó tấn công trực diện</t>
+  </si>
+  <si>
+    <t>Lừa địch rời khỏi căn cứ bằng mưu kế, tạo cơ hội tấn công khi địch mất thế</t>
+  </si>
+  <si>
+    <t>Mỹ nhân kế</t>
+  </si>
+  <si>
+    <t>Khi đối phương là người có quyền thế hoặc dễ bị ảnh hưởng bởi sắc đẹp</t>
+  </si>
+  <si>
+    <t>Sử dụng người đẹp để mê hoặc, làm suy yếu ý chí hoặc gây mất cảnh giác</t>
+  </si>
+  <si>
+    <t>Sấn hỏa đả kiếp</t>
+  </si>
+  <si>
+    <t>Khi tình hình rối loạn hoặc địch gặp nguy biến</t>
+  </si>
+  <si>
+    <t>Thừa cơ hội hỗn loạn để thao túng, hoặc tự tạo rối loạn để đạt mục đích</t>
+  </si>
+  <si>
+    <t>Vô trung sinh hữu</t>
+  </si>
+  <si>
+    <t>Khi cần tạo cơ hội trong tình thế ổn định hoặc không có biến động</t>
+  </si>
+  <si>
+    <t>Gây rối, tung tin đồn, khuấy động tình hình để tạo cơ hội hành động</t>
+  </si>
+  <si>
+    <t>Tiên phát chế nhân</t>
+  </si>
+  <si>
+    <t>Khi cần chiếm ưu thế trước đối thủ, tránh bị động</t>
+  </si>
+  <si>
+    <t>Ra tay trước, hành động nhanh, bất ngờ để áp đảo và khống chế địch</t>
+  </si>
+  <si>
+    <t>Đả thảo kinh xà</t>
+  </si>
+  <si>
+    <t>Khi cần thăm dò ý đồ hoặc làm đối phương lộ sơ hở</t>
+  </si>
+  <si>
+    <t>Hành động nhỏ để gây rối, khiến địch hoảng loạn và bộc lộ điểm yếu</t>
+  </si>
+  <si>
+    <t>Tá đao sát nhân</t>
+  </si>
+  <si>
+    <t>Khi muốn loại bỏ địch mà không trực tiếp ra tay</t>
+  </si>
+  <si>
+    <t>Mượn tay người khác hoặc thế lực khác để tiêu diệt đối thủ</t>
+  </si>
+  <si>
+    <t>Khi cần làm hại địch mà không để lộ mình</t>
+  </si>
+  <si>
+    <t>Sử dụng vật chứng giả hoặc vu khống để đổ tội cho đối phương</t>
+  </si>
+  <si>
+    <t>Khích tướng kế</t>
+  </si>
+  <si>
+    <t>Khi đối phương dễ bị kích động hoặc có tính tình bạo tháo</t>
+  </si>
+  <si>
+    <t>Chọc giận tướng địch bằng lời nói hoặc hành động để họ mất sáng suốt</t>
+  </si>
+  <si>
+    <t>Man thiên quá hải</t>
+  </si>
+  <si>
+    <t>Khi cần hành động bí mật trong tình thế bất lợi</t>
+  </si>
+  <si>
+    <t>Tận dụng hoàn cảnh mù mờ hoặc tạo "sương mù" để che giấu ý định thật</t>
+  </si>
+  <si>
+    <t>Khi cần vượt qua phòng tuyến địch mà không bị phát hiện</t>
+  </si>
+  <si>
+    <t>Đi qua con đường bất ngờ, bí mật, nơi địch không dự đoán</t>
+  </si>
+  <si>
+    <t>Phản khách vi chủ</t>
+  </si>
+  <si>
+    <t>Khi ở thế bị động và cần đảo ngược tình thế</t>
+  </si>
+  <si>
+    <t>Tìm cách chuyển từ vị trí phụ thuộc sang kiểm soát, giành quyền chủ động</t>
+  </si>
+  <si>
+    <t>Kim thiền thoát xác</t>
+  </si>
+  <si>
+    <t>Khi ở thế nguy cấp, cần thoát thân hoặc đánh lừa địch</t>
+  </si>
+  <si>
+    <t>Ngụy trang, tạo hình ảnh giả để lừa địch, thoát khỏi nguy hiểm</t>
+  </si>
+  <si>
+    <t>Không thành kế</t>
+  </si>
+  <si>
+    <t>Khi lực lượng yếu, đối mặt nguy cơ bị tấn công</t>
+  </si>
+  <si>
+    <t>Bỏ trống thành, tạo nghi ngờ để địch không dám tiến, hoặc dụ địch vào bẫy</t>
+  </si>
+  <si>
+    <t>Cầm tặc cầm vương</t>
+  </si>
+  <si>
+    <t>Khi cần triệt hạ lực lượng địch từ gốc</t>
+  </si>
+  <si>
+    <t>Tập trung bắt hoặc loại bỏ lãnh đạo địch, làm tan rã lực lượng</t>
+  </si>
+  <si>
+    <t>Khi cần che giấu thực lực để đánh lừa địch</t>
+  </si>
+  <si>
+    <t>Giả vờ yếu kém, ngu ngốc để địch mất cảnh giác, rồi bất ngờ tấn công</t>
+  </si>
+  <si>
+    <t>Khi đã đạt mục tiêu và muốn loại bỏ đồng minh hoặc thuộc hạ</t>
+  </si>
+  <si>
+    <t>Sau khi thành công, cắt đứt hoặc loại bỏ những người từng hỗ trợ</t>
+  </si>
+  <si>
+    <t>Liên hoàn kế</t>
+  </si>
+  <si>
+    <t>Khi cần tạo chuỗi hành động liên tiếp để áp đảo địch</t>
+  </si>
+  <si>
+    <t>Sử dụng các mưu kế nối tiếp, gây phản ứng dây chuyền làm rối loạn địch</t>
+  </si>
+  <si>
+    <t>Dĩ dật đãi lao</t>
+  </si>
+  <si>
+    <t>Khi địch mạnh nhưng có thể bị mệt mỏi hoặc phân tán</t>
+  </si>
+  <si>
+    <t>Bảo toàn lực lượng, chờ địch kiệt sức, rồi tấn công vào thời điểm yếu</t>
+  </si>
+  <si>
+    <t>Chỉ tang mạ hòe</t>
+  </si>
+  <si>
+    <t>Khi không tiện công khai chỉ trích hoặc tấn công trực diện</t>
+  </si>
+  <si>
+    <t>Gián tiếp phê phán hoặc tấn công bằng cách nhắm vào mục tiêu khác</t>
+  </si>
+  <si>
+    <t>Lạc tỉnh hạ thạch</t>
+  </si>
+  <si>
+    <t>Khi địch đã suy yếu hoặc rơi vào thế bất lợi</t>
+  </si>
+  <si>
+    <t>Tấn công quyết liệt vào thời điểm địch không còn khả năng chống trả</t>
+  </si>
+  <si>
+    <t>Hư trương thanh thế</t>
+  </si>
+  <si>
+    <t>Khi cần làm đối phương sợ hãi hoặc đánh giá sai thực lực</t>
+  </si>
+  <si>
+    <t>Thổi phồng lực lượng, tạo thanh thế lớn để uy hiếp tinh thần địch</t>
+  </si>
+  <si>
+    <t>Khi cần ngăn chặn vấn đề trước khi nó bùng phát</t>
+  </si>
+  <si>
+    <t>Giải quyết vấn đề từ gốc, triệt tiêu mầm mống để tránh hậu họa</t>
+  </si>
+  <si>
+    <t>Sát kê hách hầu</t>
+  </si>
+  <si>
+    <t>Khi cần răn đe hoặc làm gương cho đối phương</t>
+  </si>
+  <si>
+    <t>Giết một đối tượng nhỏ để cảnh cáo, làm đối phương sợ hãi, phục tùng</t>
+  </si>
+  <si>
+    <t>Phản gián kế</t>
+  </si>
+  <si>
+    <t>Khi nắm được ý đồ hoặc gián điệp của địch</t>
+  </si>
+  <si>
+    <t>Sử dụng thông tin hoặc gián điệp của địch để đánh lừa, quay lại hại địch</t>
+  </si>
+  <si>
+    <t>Khi cần bảo vệ mục tiêu quan trọng bằng cách hy sinh thứ yếu</t>
+  </si>
+  <si>
+    <t>Đưa đối tượng thay thế để chịu thiệt hại, bảo vệ mục tiêu chính</t>
+  </si>
+  <si>
+    <t>Khi có cơ hội bất ngờ hoặc nhỏ xuất hiện</t>
+  </si>
+  <si>
+    <t>Nhanh chóng nắm bắt cơ hội nhỏ để đạt lợi ích không dự tính</t>
+  </si>
+  <si>
+    <t>Khi muốn kiểm soát đối phương lâu dài</t>
+  </si>
+  <si>
+    <t>Thả đối phương để tạo lòng tin, rồi dần dần kiểm soát hoặc thu phục</t>
+  </si>
+  <si>
+    <t>Khổ nhục kế</t>
+  </si>
+  <si>
+    <t>Khi cần tiếp cận địch hoặc tạo lòng tin từ họ</t>
+  </si>
+  <si>
+    <t>Tự hành hạ bản thân để lấy lòng tin, che giấu ý định thật</t>
+  </si>
+  <si>
+    <t>Phao chuyên dẫn ngọc</t>
+  </si>
+  <si>
+    <t>Khi cần hy sinh thứ nhỏ để đạt được thứ lớn</t>
+  </si>
+  <si>
+    <t>Dùng vật nhỏ làm mồi nhử để đổi lấy lợi ích lớn hơn</t>
+  </si>
+  <si>
+    <t>Tá thi hoàn hồn</t>
+  </si>
+  <si>
+    <t>Khi thất bại và cần phục hồi bằng cách mượn lực lượng khác</t>
+  </si>
+  <si>
+    <t>Lợi dụng lực lượng hoặc cơ hội khác để khôi phục vị thế</t>
+  </si>
+  <si>
+    <t>Tẩu kế</t>
+  </si>
+  <si>
+    <t>Khi ở thế bất lợi, cần bảo toàn lực lượng</t>
+  </si>
+  <si>
+    <t>Chạy trốn hoặc rút lui có kế hoạch để bảo tồn sức mạnh, chờ cơ hội</t>
+  </si>
+  <si>
+    <t>Thuyết kế</t>
+  </si>
+  <si>
+    <t>Khi cần thuyết phục hoặc chi phối đối phương bằng lời nói</t>
+  </si>
+  <si>
+    <t>Sử dụng kỹ năng hùng biện, lời lẽ khéo léo để đạt mục đích</t>
+  </si>
+  <si>
+    <t>Kích kế</t>
+  </si>
+  <si>
+    <t>Khi cần khơi dậy tinh thần hoặc hành động từ đối phương</t>
+  </si>
+  <si>
+    <t>Kích động cảm xúc hoặc ý chí của đối phương để họ hành động theo ý ta</t>
+  </si>
+  <si>
+    <t>Thoái kế</t>
+  </si>
+  <si>
+    <t>Khi thất bại hoàn toàn, cần rút lui để tránh tổn thất thêm</t>
+  </si>
+  <si>
+    <t>Rút lui toàn diện, bảo toàn lực lượng tối đa để tránh bị tiêu diệt</t>
+  </si>
+  <si>
+    <t>dụ</t>
+  </si>
+  <si>
+    <t>gây hấn - chuyển dời</t>
+  </si>
+  <si>
+    <t>gây hấn - che dấu</t>
+  </si>
+  <si>
+    <t>gây hấn - dụ</t>
+  </si>
+  <si>
+    <t>nhận biết chờ chạy thuyết gây</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rút củi đáy nồi - Phủ để trùu tân </t>
+  </si>
+  <si>
+    <t>gây hấn</t>
+  </si>
+  <si>
+    <t>giả heo ăn hổ - Ban chư ngật hổ</t>
+  </si>
+  <si>
+    <t>chạy</t>
+  </si>
+  <si>
+    <t>thuyết</t>
+  </si>
+  <si>
+    <t>Thâu lương hoán trụ - Quá kiều trùu bản</t>
+  </si>
+  <si>
+    <t>giả vờ</t>
+  </si>
+  <si>
+    <t>thí xe giữ tướng - Lý đại đào cương</t>
+  </si>
+  <si>
+    <t>gây hấn - bẫy</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Ám độ trần thương</t>
+  </si>
+  <si>
+    <t>thăm dò</t>
+  </si>
+  <si>
+    <t>tin đồn, gây rối</t>
+  </si>
+  <si>
+    <t>tin đồn, gây rối, thích nghi</t>
+  </si>
+  <si>
+    <t>thuận tay dắt dê - Thuận thủ khiên dương</t>
+  </si>
+  <si>
+    <t>thừa cơ</t>
+  </si>
+  <si>
+    <t>Muốn bắt phải thả - Dục cầm cố tung</t>
+  </si>
+  <si>
+    <t>ám độc bẫy dụ mượn vu</t>
+  </si>
+  <si>
+    <t>gây hấn - mượn</t>
+  </si>
+  <si>
+    <t>gây hấn - vu</t>
+  </si>
+  <si>
+    <t>vu oan giá họa - Di thế giá họa</t>
+  </si>
+  <si>
+    <t>chuyển dời  che dấu giả vờ ngụy trang</t>
+  </si>
+  <si>
+    <t>Cách thuyết phục</t>
+  </si>
+  <si>
+    <t>Điều kiện thi hành</t>
+  </si>
+  <si>
+    <t>Các bước thuyết phục</t>
+  </si>
+  <si>
+    <t>Ví dụ</t>
+  </si>
+  <si>
+    <t>Nghiên cứu khoa học</t>
+  </si>
+  <si>
+    <t>Cung cấp lợi ích trước</t>
+  </si>
+  <si>
+    <t>Thí nghiệm của Dennis Regan (1971, "Effects of a Favor and Liking on Compliance")</t>
+  </si>
+  <si>
+    <t>Khi muốn đối phương đồng ý với yêu cầu, đặc biệt trong giao dịch hoặc quan hệ xã hội</t>
+  </si>
+  <si>
+    <t>1. Cung cấp một món quà, dịch vụ miễn phí hoặc lợi ích nhỏ. 2. Tạo cảm giác mắc nợ ở đối phương. 3. Đưa ra yêu cầu chính sau khi đối phương nhận lợi ích.</t>
+  </si>
+  <si>
+    <t>Trong thí nghiệm của Regan, một người tặng nước ngọt miễn phí cho đối tượng, sau đó yêu cầu họ mua vé số. Kết quả: những người nhận nước ngọt mua gấp đôi số vé so với nhóm không nhận.</t>
+  </si>
+  <si>
+    <t>Nhượng bộ để nhận lại</t>
+  </si>
+  <si>
+    <t>Không có nghiên cứu cụ thể, nhưng dựa trên nguyên tắc nhượng bộ của Cialdini</t>
+  </si>
+  <si>
+    <t>Khi đối phương từ chối yêu cầu ban đầu, cần một cách để khiến họ đồng ý với yêu cầu nhỏ hơn</t>
+  </si>
+  <si>
+    <t>1. Đưa ra yêu cầu lớn mà đối phương có thể từ chối. 2. Nhượng bộ bằng cách đề xuất yêu cầu nhỏ hơn. 3. Khai thác cảm giác đáp trả từ sự nhượng bộ.</t>
+  </si>
+  <si>
+    <t>Một tổ chức từ thiện yêu cầu quyên góp lớn, bị từ chối, sau đó đề nghị mua kẹo giá rẻ để ủng hộ. Nhiều người đồng ý mua kẹo vì cảm thấy cần đáp lại sự nhượng bộ.</t>
+  </si>
+  <si>
+    <t>Tạo cam kết ban đầu</t>
+  </si>
+  <si>
+    <t>Thí nghiệm về bảng hiệu an toàn giao thông (Freedman &amp; Fraser, 1966, "Compliance Without Pressure")</t>
+  </si>
+  <si>
+    <t>Khi cần đối phương đồng ý với yêu cầu lớn, nhưng cần xây dựng cam kết trước</t>
+  </si>
+  <si>
+    <t>1. Đưa ra yêu cầu nhỏ, dễ chấp nhận. 2. Đợi đối phương đồng ý và thực hiện. 3. Đưa ra yêu cầu lớn hơn, tận dụng cam kết trước đó.</t>
+  </si>
+  <si>
+    <t>Nhóm nghiên cứu yêu cầu cư dân treo bảng nhỏ về an toàn giao thông. Sau đó, họ yêu cầu treo bảng lớn hơn. 76% những người đồng ý treo bảng nhỏ cũng đồng ý treo bảng lớn, so với 17% ở nhóm không được yêu cầu trước.</t>
+  </si>
+  <si>
+    <t>chương</t>
+  </si>
+  <si>
+    <t>Kích hoạt mẫu hành vi cố định</t>
+  </si>
+  <si>
+    <t>Nghiên cứu ethology về gà mái tảo (không có tác giả cụ thể, thuộc lĩnh vực học hành vi động vật)</t>
+  </si>
+  <si>
+    <t>Khi muốn đối phương phản ứng nhanh mà không suy nghĩ, đặc biệt trong bán hàng hoặc quảng cáo</t>
+  </si>
+  <si>
+    <t>1. Xác định tín hiệu kích thích đơn giản (âm thanh, hình ảnh, hành động). 2. Tích hợp tín hiệu vào tình huống. 3. Khai thác phản ứng tự động của đối phương.</t>
+  </si>
+  <si>
+    <t>Gà mái tảo phản ứng chăm sóc mẹ khi nghe tiếng "chip-chip" của con, dù là từ vật giả. Tương tự, con người phản ứng tự động với các tín hiệu quen thuộc như giảm giá hoặc khuyến mãi.</t>
+  </si>
+  <si>
+    <t>Tận dụng sai lầm giá trị</t>
+  </si>
+  <si>
+    <t>Không có nghiên cứu cụ thể, dựa trên câu chuyện thực tiễn của Cialdini</t>
+  </si>
+  <si>
+    <t>Khi cần tăng giá trị cảm nhận của sản phẩm/dịch vụ trong mắt khách hàng</t>
+  </si>
+  <si>
+    <t>1. Tạo tình huống khiến giá trị sản phẩm bị hiểu sai (như giá cao hơn). 2. Để khách hàng tự đưa ra quyết định dựa trên giá trị cảm nhận. 3. Khai thác hành vi mua hàng do hiểu lầm.</t>
+  </si>
+  <si>
+    <t>Cô chủ cửa hàng đá quý ngọc lam vô tình ghi giá gấp đôi (x2 thay vì 1/2), khiến khách hàng mua hết vì nghĩ đá quý đắt giá hơn thực tế.</t>
+  </si>
+  <si>
+    <t>Tạo cam kết nhỏ trước</t>
+  </si>
+  <si>
+    <t>Thí nghiệm của Freedman &amp; Fraser (1966, "Compliance Without Pressure")</t>
+  </si>
+  <si>
+    <t>Khi muốn đối phương đồng ý với yêu cầu lớn, cần xây dựng cam kết ban đầu</t>
+  </si>
+  <si>
+    <t>1. Đưa ra yêu cầu nhỏ, dễ chấp nhận. 2. Đợi đối phương đồng ý và thực hiện. 3. Đưa ra yêu cầu lớn hơn, dựa trên cam kết trước.</t>
+  </si>
+  <si>
+    <t>Cư dân được yêu cầu treo bảng nhỏ về an toàn giao thông. Sau đó, 76% đồng ý treo bảng lớn hơn, so với 17% ở nhóm không có cam kết trước.</t>
+  </si>
+  <si>
+    <t>Tận dụng cam kết công khai</t>
+  </si>
+  <si>
+    <t>Thí nghiệm của Deutsch &amp; Gerard (1955, "A Study of Normative and Informational Social Influences")</t>
+  </si>
+  <si>
+    <t>Khi cần đối phương duy trì hành động nhất quán, đặc biệt trong nhóm</t>
+  </si>
+  <si>
+    <t>1. Yêu cầu đối phương cam kết công khai (nói hoặc viết). 2. Tạo áp lực xã hội để duy trì cam kết. 3. Đưa ra yêu cầu tiếp theo phù hợp với cam kết.</t>
+  </si>
+  <si>
+    <t>Trong thí nghiệm, những người công khai cam kết ý kiến của mình ít thay đổi hơn khi đối mặt với áp lực nhóm, so với những người cam kết riêng tư.</t>
+  </si>
+  <si>
+    <t>Khuyến khích cam kết bằng văn bản</t>
+  </si>
+  <si>
+    <t>Không có nghiên cứu cụ thể, dựa trên phân tích của Cialdini</t>
+  </si>
+  <si>
+    <t>Khi muốn tăng tính ràng buộc của cam kết, đặc biệt trong kinh doanh</t>
+  </si>
+  <si>
+    <t>1. Yêu cầu đối phương viết cam kết (biểu mẫu, chữ ký). 2. Nhắc nhở về cam kết khi cần hành động. 3. Đưa ra yêu cầu dựa trên cam kết đã viết.</t>
+  </si>
+  <si>
+    <t>Công ty điện thoại yêu cầu khách hàng viết cam kết tiết kiệm năng lượng. Những người viết cam kết giảm tiêu thụ năng lượng đáng kể so với nhóm không viết.</t>
+  </si>
+  <si>
+    <t>Sử dụng hành vi đám đông</t>
+  </si>
+  <si>
+    <t>Thí nghiệm của Asch (1951, "Effects of Group Pressure upon the Modification and Distortion of Judgments")</t>
+  </si>
+  <si>
+    <t>Khi đối phương không chắc chắn và cần định hướng hành vi</t>
+  </si>
+  <si>
+    <t>1. Trình bày hành vi của đa số (số liệu, hình ảnh). 2. Nhấn mạnh tính phổ biến của hành vi. 3. Khuyến khích đối phương làm theo.</t>
+  </si>
+  <si>
+    <t>Trong thí nghiệm của Asch, người tham gia chọn đáp án sai khi thấy đa số nhóm chọn đáp án đó, dù biết là sai.</t>
+  </si>
+  <si>
+    <t>Tận dụng lời chứng thực</t>
+  </si>
+  <si>
+    <t>Khi cần tăng độ tin cậy cho sản phẩm/dịch vụ</t>
+  </si>
+  <si>
+    <t>1. Thu thập lời chứng thực từ khách hàng hoặc người nổi tiếng. 2. Hiển thị lời chứng thực ở nơi dễ thấy. 3. Đưa ra yêu cầu hành động dựa trên lời chứng thực.</t>
+  </si>
+  <si>
+    <t>Quảng cáo TV sử dụng lời chứng thực của người dùng, khiến khán giả tin và mua sản phẩm.</t>
+  </si>
+  <si>
+    <t>Tạo hiệu ứng lan truyền</t>
+  </si>
+  <si>
+    <t>Thí nghiệm về tiếng cười trong chương trình TV (không có tác giả cụ thể, dựa trên nghiên cứu tâm lý)</t>
+  </si>
+  <si>
+    <t>Khi muốn tăng mức độ chấp nhận hành vi trong nhóm</t>
+  </si>
+  <si>
+    <t>1. Tạo tình huống mô phỏng hành vi đám đông (âm thanh, hình ảnh). 2. Lặp lại để củng cố cảm giác phổ biến. 3. Khuyến khích đối phương tham gia.</t>
+  </si>
+  <si>
+    <t>Tiếng cười trong sitcom khiến khán giả cười theo, dù nội dung không quá hài hước, do hiệu ứng bằng chứng xã hội.</t>
+  </si>
+  <si>
+    <t>Chương 3: Nguyên tắc cam kết và nhất quán</t>
+  </si>
+  <si>
+    <t>Chương 4: Nguyên tắc bằng chứng xã hội</t>
+  </si>
+  <si>
+    <t>Chương 2: Nguyên tắc đáp trả</t>
+  </si>
+  <si>
+    <t>Tạo sự tương đồng</t>
+  </si>
+  <si>
+    <t>Khi cần xây dựng mối quan hệ thân thiết với đối phương</t>
+  </si>
+  <si>
+    <t>1. Tìm điểm tương đồng (sở thích, quê quán). 2. Nhấn mạnh sự tương đồng trong giao tiếp. 3. Đưa ra yêu cầu khi đã tạo thiện cảm.</t>
+  </si>
+  <si>
+    <t>Nhân viên bán hàng Tupperware tổ chức tiệc tại nhà bạn bè, tận dụng mối quan hệ thân thiết để bán hàng dễ dàng hơn.</t>
+  </si>
+  <si>
+    <t>Sử dụng lời khen</t>
+  </si>
+  <si>
+    <t>Thí nghiệm của Driscoll et al. (1972, "Effects of Praise on Compliance")</t>
+  </si>
+  <si>
+    <t>Khi muốn đối phương cảm thấy được đánh giá cao</t>
+  </si>
+  <si>
+    <t>1. Đưa ra lời khen chân thành hoặc phù hợp. 2. Tạo cảm giác tích cực ở đối phương. 3. Đưa ra yêu cầu dựa trên thiện cảm.</t>
+  </si>
+  <si>
+    <t>Người bán hàng khen khách hàng có gu thẩm mỹ, khiến họ dễ đồng ý mua sản phẩm hơn.</t>
+  </si>
+  <si>
+    <t>Tận dụng sức hấp dẫn ngoại hình</t>
+  </si>
+  <si>
+    <t>Khi cần gây ấn tượng ban đầu mạnh mẽ</t>
+  </si>
+  <si>
+    <t>1. Chăm chút ngoại hình hoặc sử dụng người có ngoại hình thu hút. 2. Tạo ấn tượng tích cực. 3. Đưa ra yêu cầu khi đối phương đã bị thu hút.</t>
+  </si>
+  <si>
+    <t>Người mẫu quảng cáo xinh đẹp khiến khách hàng chú ý và tin tưởng sản phẩm hơn.</t>
+  </si>
+  <si>
+    <t>Chương 5: Nguyên tắc thiện cảm</t>
+  </si>
+  <si>
+    <t>Sử dụng biểu tượng uy quyền</t>
+  </si>
+  <si>
+    <t>Thí nghiệm của Milgram (1963, "Behavioral Study of Obedience")</t>
+  </si>
+  <si>
+    <t>Khi cần đối phương tuân thủ mà không đặt câu hỏi</t>
+  </si>
+  <si>
+    <t>1. Sử dụng biểu tượng uy quyền (chức danh, đồng phục). 2. Đưa ra yêu cầu rõ ràng, mang tính chỉ đạo. 3. Khai thác xu hướng tuân thủ tự động.</t>
+  </si>
+  <si>
+    <t>Trong thí nghiệm của Milgram, người tham gia tuân lệnh gây sốc điện khi được "nhà khoa học" yêu cầu, do uy quyền của người này.</t>
+  </si>
+  <si>
+    <t>Tận dụng chuyên môn</t>
+  </si>
+  <si>
+    <t>Khi cần thuyết phục dựa trên kiến thức hoặc kinh nghiệm</t>
+  </si>
+  <si>
+    <t>1. Trình bày bằng chứng về chuyên môn (bằng cấp, kinh nghiệm). 2. Đưa ra lời khuyên hoặc yêu cầu dựa trên chuyên môn. 3. Khuyến khích đối phương tin tưởng.</t>
+  </si>
+  <si>
+    <t>Bác sĩ trong quảng cáo thuốc đưa ra lời khuyên, khiến người xem tin tưởng và mua sản phẩm.</t>
+  </si>
+  <si>
+    <t>Hiển thị uy quyền qua bối cảnh</t>
+  </si>
+  <si>
+    <t>Khi cần tăng độ tin cậy trong môi trường chuyên nghiệp</t>
+  </si>
+  <si>
+    <t>1. Tạo bối cảnh uy quyền (văn phòng, trang phục). 2. Đưa ra yêu cầu trong bối cảnh đó. 3. Khai thác niềm tin từ bối cảnh.</t>
+  </si>
+  <si>
+    <t>Nhân viên ngân hàng mặc vest, làm việc trong văn phòng sang trọng, khiến khách hàng dễ tin tưởng và ký hợp đồng.</t>
+  </si>
+  <si>
+    <t>Chương 6: Nguyên tắc uy quyền</t>
+  </si>
+  <si>
+    <t>Tạo cảm giác khan hiếm</t>
+  </si>
+  <si>
+    <t>Khi cần thúc đẩy hành động mua hàng hoặc quyết định nhanh</t>
+  </si>
+  <si>
+    <t>1. Nhấn mạnh tính khan hiếm của sản phẩm (số lượng, thời gian). 2. Tạo áp lực tâm lý về cơ hội bị mất. 3. Đưa ra yêu cầu hành động ngay lập tức.</t>
+  </si>
+  <si>
+    <t>Anh trai của Cialdini sắp xếp nhiều khách xem xe cùng lúc, tạo cảm giác cạnh tranh, khiến khách mua xe với giá cao hơn.</t>
+  </si>
+  <si>
+    <t>Tận dụng hiệu ứng giới hạn thời gian</t>
+  </si>
+  <si>
+    <t>Khi cần đối phương hành động trong thời gian ngắn</t>
+  </si>
+  <si>
+    <t>1. Đặt thời hạn cho ưu đãi hoặc sản phẩm. 2. Nhắc nhở về hậu quả nếu bỏ lỡ. 3. Khuyến khích hành động trước khi hết hạn.</t>
+  </si>
+  <si>
+    <t>Cửa hàng thông báo "chỉ còn 3 ngày giảm giá", khiến khách hàng mua ngay để không bỏ lỡ cơ hội.</t>
+  </si>
+  <si>
+    <t>Hiệu ứng cấm đoán</t>
+  </si>
+  <si>
+    <t>Không có nghiên cứu cụ thể, dựa trên câu chuyện "Romeo và Juliet" của Cialdini</t>
+  </si>
+  <si>
+    <t>Khi muốn tăng sức hấp dẫn của một thứ bị cấm</t>
+  </si>
+  <si>
+    <t>1. Đặt giới hạn hoặc cấm đoán đối với sản phẩm/hành vi. 2. Nhấn mạnh tính độc quyền hoặc khó đạt được. 3. Khai thác mong muốn vượt qua giới hạn.</t>
+  </si>
+  <si>
+    <t>Cô gái 19 tuổi yêu người đàn ông lớn tuổi hơn vì gia đình phản đối, làm tăng sức hút của mối quan hệ (hiệu ứng Romeo và Juliet).</t>
+  </si>
+  <si>
+    <t>Chương 7: Nguyên tắc khan hiếm</t>
+  </si>
+  <si>
+    <t>Khai thác phản ứng máy móc</t>
+  </si>
+  <si>
+    <t>Khi cần đối phương hành động nhanh trong môi trường thông tin phức tạp</t>
+  </si>
+  <si>
+    <t>1. Sử dụng kích thích đơn giản (nguyên tắc như uy quyền, khan hiếm). 2. Tích hợp vào tình huống áp lực cao. 3. Khai thác phản ứng tự động.</t>
+  </si>
+  <si>
+    <t>Joe Pine khiêu khích Frank Zappa về tóc dài, khiến Zappa phản ứng ngay bằng câu nói về chân gỗ, dựa trên kích thích đơn giản.</t>
+  </si>
+  <si>
+    <t>Chống lại sự lạm dụng nguyên tắc</t>
+  </si>
+  <si>
+    <t>Khi cần bảo vệ tính hiệu quả của các nguyên tắc thuyết phục</t>
+  </si>
+  <si>
+    <t>1. Phát hiện hành vi lạm dụng (lừa đảo, thao túng). 2. Phản ứng bằng cách từ chối hoặc đối đầu. 3. Củng cố niềm tin vào nguyên tắc chính đáng.</t>
+  </si>
+  <si>
+    <t>Cialdini kêu gọi chống lại những kẻ lợi dụng nguyên tắc thuyết phục để trục lợi, như các nhà quảng cáo lừa đảo, để bảo vệ tính hiệu quả của các nguyên tắc.</t>
+  </si>
+  <si>
+    <t>Phần kết: Ảnh hưởng tức thì</t>
+  </si>
+  <si>
+    <t>Chương 1: Vũ khí ảnh hưởng</t>
   </si>
 </sst>
 </file>
@@ -856,11 +1584,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H64" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G77"/>
+      <selection pane="bottomRight" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -943,28 +1671,28 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>130</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -972,28 +1700,28 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>110</v>
+        <v>22</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1001,28 +1729,28 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>110</v>
+        <v>22</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1030,28 +1758,28 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>110</v>
+        <v>22</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1059,28 +1787,28 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>110</v>
+        <v>22</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1088,28 +1816,28 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>110</v>
+        <v>22</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1117,28 +1845,28 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>110</v>
+        <v>22</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1146,28 +1874,28 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>110</v>
+        <v>22</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1175,28 +1903,28 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
+        <v>22</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1204,28 +1932,28 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>110</v>
+        <v>22</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1233,28 +1961,28 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1262,28 +1990,28 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1291,28 +2019,28 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1320,28 +2048,28 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1349,28 +2077,28 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1378,28 +2106,28 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1407,28 +2135,28 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1436,28 +2164,28 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1465,28 +2193,28 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1494,28 +2222,28 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1523,28 +2251,28 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1552,28 +2280,28 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1581,28 +2309,28 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1610,28 +2338,28 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1639,28 +2367,28 @@
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1668,28 +2396,28 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1697,28 +2425,28 @@
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1726,28 +2454,28 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1755,28 +2483,28 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1784,28 +2512,28 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1813,28 +2541,28 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1842,28 +2570,28 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1871,28 +2599,28 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1900,28 +2628,28 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1929,28 +2657,28 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1958,28 +2686,28 @@
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -1987,28 +2715,28 @@
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2016,28 +2744,28 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2045,28 +2773,28 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2074,28 +2802,28 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2103,28 +2831,28 @@
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2132,28 +2860,28 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2161,28 +2889,28 @@
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2190,28 +2918,28 @@
         <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2219,28 +2947,28 @@
         <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2248,28 +2976,28 @@
         <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2277,28 +3005,28 @@
         <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
-      </c>
-      <c r="K48" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2306,28 +3034,28 @@
         <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="J49" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2335,28 +3063,28 @@
         <v>49</v>
       </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2364,28 +3092,28 @@
         <v>50</v>
       </c>
       <c r="G51" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
-      </c>
-      <c r="K51" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2393,28 +3121,28 @@
         <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
-      </c>
-      <c r="K52" t="s">
-        <v>131</v>
+        <v>22</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2422,28 +3150,28 @@
         <v>52</v>
       </c>
       <c r="G53" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" t="s">
-        <v>131</v>
+        <v>22</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2451,28 +3179,28 @@
         <v>53</v>
       </c>
       <c r="G54" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" t="s">
-        <v>131</v>
+        <v>22</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2480,28 +3208,28 @@
         <v>54</v>
       </c>
       <c r="G55" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K55" t="s">
-        <v>131</v>
+        <v>22</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2509,28 +3237,28 @@
         <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
-      </c>
-      <c r="K56" t="s">
-        <v>131</v>
+        <v>22</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2538,28 +3266,28 @@
         <v>56</v>
       </c>
       <c r="G57" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" t="s">
-        <v>131</v>
+        <v>22</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2567,28 +3295,28 @@
         <v>57</v>
       </c>
       <c r="G58" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" t="s">
-        <v>131</v>
+        <v>22</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2596,28 +3324,28 @@
         <v>58</v>
       </c>
       <c r="G59" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" t="s">
-        <v>131</v>
+        <v>22</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -2625,28 +3353,28 @@
         <v>59</v>
       </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" t="s">
-        <v>131</v>
+        <v>22</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -2654,28 +3382,28 @@
         <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" t="s">
-        <v>132</v>
+        <v>22</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -2683,28 +3411,28 @@
         <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>21</v>
-      </c>
-      <c r="K62" t="s">
-        <v>132</v>
+        <v>22</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -2712,28 +3440,28 @@
         <v>62</v>
       </c>
       <c r="G63" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I63" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="J63" t="s">
-        <v>21</v>
-      </c>
-      <c r="K63" t="s">
-        <v>132</v>
+        <v>22</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -2741,28 +3469,28 @@
         <v>63</v>
       </c>
       <c r="G64" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" t="s">
-        <v>132</v>
+        <v>22</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -2770,28 +3498,28 @@
         <v>64</v>
       </c>
       <c r="G65" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>21</v>
-      </c>
-      <c r="K65" t="s">
-        <v>132</v>
+        <v>22</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -2799,28 +3527,28 @@
         <v>65</v>
       </c>
       <c r="G66" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I66" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
-      </c>
-      <c r="K66" t="s">
-        <v>132</v>
+        <v>22</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -2828,28 +3556,28 @@
         <v>66</v>
       </c>
       <c r="G67" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I67" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="J67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K67" t="s">
-        <v>132</v>
+        <v>22</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -2857,28 +3585,28 @@
         <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I68" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="J68" t="s">
-        <v>21</v>
-      </c>
-      <c r="K68" t="s">
-        <v>132</v>
+        <v>22</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -2886,28 +3614,28 @@
         <v>68</v>
       </c>
       <c r="G69" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I69" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="J69" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" t="s">
-        <v>132</v>
+        <v>22</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -2915,28 +3643,28 @@
         <v>69</v>
       </c>
       <c r="G70" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="J70" t="s">
-        <v>21</v>
-      </c>
-      <c r="K70" t="s">
-        <v>118</v>
+        <v>22</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -2944,28 +3672,28 @@
         <v>70</v>
       </c>
       <c r="G71" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>21</v>
-      </c>
-      <c r="K71" t="s">
-        <v>118</v>
+        <v>22</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -2973,28 +3701,28 @@
         <v>71</v>
       </c>
       <c r="G72" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="J72" t="s">
-        <v>21</v>
-      </c>
-      <c r="K72" t="s">
-        <v>118</v>
+        <v>22</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3002,28 +3730,28 @@
         <v>72</v>
       </c>
       <c r="G73" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I73" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="J73" t="s">
-        <v>21</v>
-      </c>
-      <c r="K73" t="s">
-        <v>118</v>
+        <v>22</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="L73" t="s">
         <v>16</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3031,28 +3759,28 @@
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="J74" t="s">
-        <v>21</v>
-      </c>
-      <c r="K74" t="s">
-        <v>118</v>
+        <v>22</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3060,28 +3788,28 @@
         <v>74</v>
       </c>
       <c r="G75" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I75" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="J75" t="s">
-        <v>21</v>
-      </c>
-      <c r="K75" t="s">
-        <v>118</v>
+        <v>22</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="L75" t="s">
         <v>16</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3089,28 +3817,28 @@
         <v>75</v>
       </c>
       <c r="G76" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="J76" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" t="s">
-        <v>118</v>
+        <v>22</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3118,28 +3846,28 @@
         <v>76</v>
       </c>
       <c r="G77" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I77" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="J77" t="s">
-        <v>21</v>
-      </c>
-      <c r="K77" t="s">
-        <v>118</v>
+        <v>22</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="L77" t="s">
         <v>16</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -5873,8 +6601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5887,22 +6615,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45">
@@ -5913,16 +6641,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5933,16 +6661,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5953,16 +6681,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5973,16 +6701,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5993,16 +6721,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6013,16 +6741,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -6033,16 +6761,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6053,16 +6781,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6073,16 +6801,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -6093,16 +6821,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6113,16 +6841,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -6133,16 +6861,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6153,16 +6881,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6173,16 +6901,16 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6193,16 +6921,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6213,16 +6941,16 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6233,16 +6961,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30">
@@ -6253,16 +6981,16 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="60">
@@ -6273,16 +7001,16 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6293,16 +7021,16 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6313,16 +7041,16 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6333,16 +7061,16 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6353,16 +7081,16 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6373,16 +7101,16 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6393,16 +7121,16 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6413,16 +7141,16 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6433,16 +7161,16 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6453,16 +7181,16 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6473,16 +7201,16 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45">
@@ -6493,16 +7221,16 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6513,16 +7241,16 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6533,16 +7261,16 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6553,16 +7281,16 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6573,16 +7301,16 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6593,16 +7321,16 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6613,16 +7341,16 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6633,16 +7361,16 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6653,16 +7381,16 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6673,16 +7401,16 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="60">
@@ -6693,16 +7421,16 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
@@ -6713,16 +7441,16 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6733,16 +7461,16 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30">
@@ -6753,16 +7481,16 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30">
@@ -6773,16 +7501,16 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30">
@@ -6793,16 +7521,16 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30">
@@ -6813,16 +7541,16 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6833,16 +7561,16 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30">
@@ -6853,16 +7581,16 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30">
@@ -6873,16 +7601,16 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="45">
@@ -6893,16 +7621,16 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6913,16 +7641,16 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6933,16 +7661,16 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6953,16 +7681,16 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6973,16 +7701,16 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30">
@@ -6993,16 +7721,16 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7013,16 +7741,16 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7033,16 +7761,16 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="30">
@@ -7053,16 +7781,16 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="45">
@@ -7073,16 +7801,16 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30">
@@ -7093,16 +7821,16 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7113,16 +7841,16 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7133,16 +7861,16 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7153,16 +7881,16 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7173,16 +7901,16 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7193,16 +7921,16 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7213,16 +7941,16 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30">
@@ -7233,16 +7961,16 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="75">
@@ -7253,16 +7981,16 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7273,16 +8001,16 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7293,16 +8021,16 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7313,16 +8041,16 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7333,16 +8061,16 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7353,16 +8081,16 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7373,16 +8101,16 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="30">
@@ -7393,16 +8121,16 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -7416,66 +8144,1276 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="8">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" t="s">
+        <v>226</v>
+      </c>
+      <c r="E36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" t="s">
+        <v>233</v>
+      </c>
+      <c r="F37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="C41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="C42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="C43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="C44" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F37">
+    <sortCondition ref="B17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" t="s">
+        <v>320</v>
+      </c>
+      <c r="F12" t="s">
+        <v>321</v>
+      </c>
+      <c r="G12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" t="s">
+        <v>332</v>
+      </c>
+      <c r="F14" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F15" t="s">
+        <v>337</v>
+      </c>
+      <c r="G15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" t="s">
+        <v>342</v>
+      </c>
+      <c r="F16" t="s">
+        <v>343</v>
+      </c>
+      <c r="G16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" t="s">
+        <v>354</v>
+      </c>
+      <c r="E19" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" t="s">
+        <v>356</v>
+      </c>
+      <c r="G19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E20" t="s">
+        <v>359</v>
+      </c>
+      <c r="F20" t="s">
+        <v>360</v>
+      </c>
+      <c r="G20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C21" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21" t="s">
+        <v>364</v>
+      </c>
+      <c r="F21" t="s">
+        <v>365</v>
+      </c>
+      <c r="G21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F22" t="s">
+        <v>370</v>
+      </c>
+      <c r="G22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" t="s">
+        <v>372</v>
+      </c>
+      <c r="E23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F23" t="s">
+        <v>374</v>
+      </c>
+      <c r="G23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G23">
+    <sortCondition ref="G5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/tu duy phan tich.xlsx
+++ b/public/tu duy phan tich.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="phuong phap phan tich" sheetId="3" r:id="rId2"/>
-    <sheet name="36 kế" sheetId="4" r:id="rId3"/>
-    <sheet name="thuyet phuc" sheetId="6" r:id="rId4"/>
+    <sheet name="thuyet phuc" sheetId="6" r:id="rId3"/>
+    <sheet name="36 kế" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'phuong phap phan tich'!$D$1:$F$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'thuyet phuc'!$A$1:$G$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'thuyet phuc'!$A$1:$G$23</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="379">
   <si>
     <t>STT</t>
   </si>
@@ -1192,6 +1192,12 @@
   </si>
   <si>
     <t>Chương 1: Vũ khí ảnh hưởng</t>
+  </si>
+  <si>
+    <t>Thử máy</t>
+  </si>
+  <si>
+    <t>tóm tắt</t>
   </si>
 </sst>
 </file>
@@ -1582,22 +1588,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S757"/>
+  <dimension ref="A1:S759"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H72" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="H78" sqref="H78"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="7" width="6.140625" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.5703125" style="7" customWidth="1"/>
@@ -1689,15 +1695,15 @@
         <v>16</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>120</v>
+        <v>377</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>120</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1712,21 +1718,21 @@
         <v>22</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>47</v>
+        <v>378</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>47</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1741,21 +1747,21 @@
         <v>22</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1776,15 +1782,15 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -1805,15 +1811,15 @@
         <v>16</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -1834,15 +1840,15 @@
         <v>16</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
@@ -1863,15 +1869,15 @@
         <v>16</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -1892,15 +1898,15 @@
         <v>16</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -1921,15 +1927,15 @@
         <v>16</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -1950,15 +1956,15 @@
         <v>16</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -1973,21 +1979,21 @@
         <v>22</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
@@ -2002,21 +2008,21 @@
         <v>22</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -2037,15 +2043,15 @@
         <v>16</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -2066,15 +2072,15 @@
         <v>16</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -2095,15 +2101,15 @@
         <v>16</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
@@ -2124,15 +2130,15 @@
         <v>16</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
@@ -2153,15 +2159,15 @@
         <v>16</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
@@ -2182,15 +2188,15 @@
         <v>16</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
@@ -2211,15 +2217,15 @@
         <v>16</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
@@ -2234,21 +2240,21 @@
         <v>22</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -2263,21 +2269,21 @@
         <v>22</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
@@ -2298,15 +2304,15 @@
         <v>16</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -2327,15 +2333,15 @@
         <v>16</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -2356,15 +2362,15 @@
         <v>16</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
@@ -2385,15 +2391,15 @@
         <v>16</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
         <v>20</v>
@@ -2414,15 +2420,15 @@
         <v>16</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
         <v>20</v>
@@ -2443,15 +2449,15 @@
         <v>16</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
         <v>20</v>
@@ -2472,15 +2478,15 @@
         <v>16</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
@@ -2501,15 +2507,15 @@
         <v>16</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -2530,15 +2536,15 @@
         <v>16</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
@@ -2553,21 +2559,21 @@
         <v>22</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
@@ -2582,21 +2588,21 @@
         <v>22</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
@@ -2617,15 +2623,15 @@
         <v>16</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
@@ -2646,15 +2652,15 @@
         <v>16</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
         <v>20</v>
@@ -2675,15 +2681,15 @@
         <v>16</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>20</v>
@@ -2704,15 +2710,15 @@
         <v>16</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
@@ -2733,15 +2739,15 @@
         <v>16</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
@@ -2762,15 +2768,15 @@
         <v>16</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -2791,15 +2797,15 @@
         <v>16</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
@@ -2820,15 +2826,15 @@
         <v>16</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
@@ -2843,21 +2849,21 @@
         <v>22</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
@@ -2872,21 +2878,21 @@
         <v>22</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
@@ -2907,15 +2913,15 @@
         <v>16</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
@@ -2936,15 +2942,15 @@
         <v>16</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
@@ -2965,15 +2971,15 @@
         <v>16</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -2994,15 +3000,15 @@
         <v>16</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
@@ -3023,15 +3029,15 @@
         <v>16</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s">
         <v>20</v>
@@ -3052,15 +3058,15 @@
         <v>16</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s">
         <v>20</v>
@@ -3081,15 +3087,15 @@
         <v>16</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -3110,15 +3116,15 @@
         <v>16</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s">
         <v>20</v>
@@ -3133,21 +3139,21 @@
         <v>22</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s">
         <v>20</v>
@@ -3162,21 +3168,21 @@
         <v>22</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s">
         <v>20</v>
@@ -3197,15 +3203,15 @@
         <v>16</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G55" t="s">
         <v>20</v>
@@ -3226,15 +3232,15 @@
         <v>16</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G56" t="s">
         <v>20</v>
@@ -3255,15 +3261,15 @@
         <v>16</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s">
         <v>20</v>
@@ -3284,15 +3290,15 @@
         <v>16</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G58" t="s">
         <v>20</v>
@@ -3313,15 +3319,15 @@
         <v>16</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G59" t="s">
         <v>20</v>
@@ -3342,15 +3348,15 @@
         <v>16</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
@@ -3371,15 +3377,15 @@
         <v>16</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G61" t="s">
         <v>20</v>
@@ -3394,21 +3400,21 @@
         <v>22</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
         <v>20</v>
@@ -3423,21 +3429,21 @@
         <v>22</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G63" t="s">
         <v>20</v>
@@ -3458,15 +3464,15 @@
         <v>16</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" t="s">
         <v>20</v>
@@ -3487,15 +3493,15 @@
         <v>16</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" t="s">
         <v>20</v>
@@ -3516,15 +3522,15 @@
         <v>16</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" t="s">
         <v>20</v>
@@ -3545,15 +3551,15 @@
         <v>16</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67" t="s">
         <v>20</v>
@@ -3574,15 +3580,15 @@
         <v>16</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G68" t="s">
         <v>20</v>
@@ -3603,15 +3609,15 @@
         <v>16</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
@@ -3632,15 +3638,15 @@
         <v>16</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
@@ -3655,21 +3661,21 @@
         <v>22</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G71" t="s">
         <v>20</v>
@@ -3684,21 +3690,21 @@
         <v>22</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G72" t="s">
         <v>20</v>
@@ -3719,15 +3725,15 @@
         <v>16</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G73" t="s">
         <v>20</v>
@@ -3748,15 +3754,15 @@
         <v>16</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G74" t="s">
         <v>20</v>
@@ -3777,15 +3783,15 @@
         <v>16</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
@@ -3806,15 +3812,15 @@
         <v>16</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G76" t="s">
         <v>20</v>
@@ -3835,15 +3841,15 @@
         <v>16</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G77" t="s">
         <v>20</v>
@@ -3864,19 +3870,69 @@
         <v>16</v>
       </c>
       <c r="M77" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="G78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L78" t="s">
+        <v>16</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N78" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L79" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="N77" s="7" t="s">
+      <c r="N79" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="1"/>
-      <c r="K78" s="5"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="1"/>
-      <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1"/>
@@ -6589,6 +6645,14 @@
     <row r="757" spans="1:11">
       <c r="A757" s="1"/>
       <c r="K757" s="5"/>
+    </row>
+    <row r="758" spans="1:11">
+      <c r="A758" s="1"/>
+      <c r="K758" s="5"/>
+    </row>
+    <row r="759" spans="1:11">
+      <c r="A759" s="1"/>
+      <c r="K759" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8144,6 +8208,555 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" t="s">
+        <v>306</v>
+      </c>
+      <c r="G9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" t="s">
+        <v>311</v>
+      </c>
+      <c r="G10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E15" t="s">
+        <v>335</v>
+      </c>
+      <c r="F15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" t="s">
+        <v>350</v>
+      </c>
+      <c r="G18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" t="s">
+        <v>354</v>
+      </c>
+      <c r="F19" t="s">
+        <v>355</v>
+      </c>
+      <c r="G19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" t="s">
+        <v>359</v>
+      </c>
+      <c r="G20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E21" t="s">
+        <v>363</v>
+      </c>
+      <c r="F21" t="s">
+        <v>364</v>
+      </c>
+      <c r="G21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" t="s">
+        <v>368</v>
+      </c>
+      <c r="F22" t="s">
+        <v>369</v>
+      </c>
+      <c r="G22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" t="s">
+        <v>304</v>
+      </c>
+      <c r="E23" t="s">
+        <v>372</v>
+      </c>
+      <c r="F23" t="s">
+        <v>373</v>
+      </c>
+      <c r="G23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -8866,554 +9479,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="63" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F6" t="s">
-        <v>281</v>
-      </c>
-      <c r="G6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E8" t="s">
-        <v>301</v>
-      </c>
-      <c r="F8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" t="s">
-        <v>306</v>
-      </c>
-      <c r="F9" t="s">
-        <v>307</v>
-      </c>
-      <c r="G9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D10" t="s">
-        <v>310</v>
-      </c>
-      <c r="E10" t="s">
-        <v>311</v>
-      </c>
-      <c r="F10" t="s">
-        <v>312</v>
-      </c>
-      <c r="G10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C11" t="s">
-        <v>304</v>
-      </c>
-      <c r="D11" t="s">
-        <v>314</v>
-      </c>
-      <c r="E11" t="s">
-        <v>315</v>
-      </c>
-      <c r="F11" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D12" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" t="s">
-        <v>320</v>
-      </c>
-      <c r="F12" t="s">
-        <v>321</v>
-      </c>
-      <c r="G12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D13" t="s">
-        <v>326</v>
-      </c>
-      <c r="E13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F13" t="s">
-        <v>328</v>
-      </c>
-      <c r="G13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" t="s">
-        <v>331</v>
-      </c>
-      <c r="E14" t="s">
-        <v>332</v>
-      </c>
-      <c r="F14" t="s">
-        <v>333</v>
-      </c>
-      <c r="G14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>334</v>
-      </c>
-      <c r="C15" t="s">
-        <v>304</v>
-      </c>
-      <c r="D15" t="s">
-        <v>335</v>
-      </c>
-      <c r="E15" t="s">
-        <v>336</v>
-      </c>
-      <c r="F15" t="s">
-        <v>337</v>
-      </c>
-      <c r="G15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>339</v>
-      </c>
-      <c r="C16" t="s">
-        <v>340</v>
-      </c>
-      <c r="D16" t="s">
-        <v>341</v>
-      </c>
-      <c r="E16" t="s">
-        <v>342</v>
-      </c>
-      <c r="F16" t="s">
-        <v>343</v>
-      </c>
-      <c r="G16" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>344</v>
-      </c>
-      <c r="C17" t="s">
-        <v>304</v>
-      </c>
-      <c r="D17" t="s">
-        <v>345</v>
-      </c>
-      <c r="E17" t="s">
-        <v>346</v>
-      </c>
-      <c r="F17" t="s">
-        <v>347</v>
-      </c>
-      <c r="G17" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>348</v>
-      </c>
-      <c r="C18" t="s">
-        <v>304</v>
-      </c>
-      <c r="D18" t="s">
-        <v>349</v>
-      </c>
-      <c r="E18" t="s">
-        <v>350</v>
-      </c>
-      <c r="F18" t="s">
-        <v>351</v>
-      </c>
-      <c r="G18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>353</v>
-      </c>
-      <c r="C19" t="s">
-        <v>304</v>
-      </c>
-      <c r="D19" t="s">
-        <v>354</v>
-      </c>
-      <c r="E19" t="s">
-        <v>355</v>
-      </c>
-      <c r="F19" t="s">
-        <v>356</v>
-      </c>
-      <c r="G19" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C20" t="s">
-        <v>304</v>
-      </c>
-      <c r="D20" t="s">
-        <v>358</v>
-      </c>
-      <c r="E20" t="s">
-        <v>359</v>
-      </c>
-      <c r="F20" t="s">
-        <v>360</v>
-      </c>
-      <c r="G20" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>361</v>
-      </c>
-      <c r="C21" t="s">
-        <v>362</v>
-      </c>
-      <c r="D21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E21" t="s">
-        <v>364</v>
-      </c>
-      <c r="F21" t="s">
-        <v>365</v>
-      </c>
-      <c r="G21" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>367</v>
-      </c>
-      <c r="C22" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" t="s">
-        <v>368</v>
-      </c>
-      <c r="E22" t="s">
-        <v>369</v>
-      </c>
-      <c r="F22" t="s">
-        <v>370</v>
-      </c>
-      <c r="G22" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>371</v>
-      </c>
-      <c r="C23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D23" t="s">
-        <v>372</v>
-      </c>
-      <c r="E23" t="s">
-        <v>373</v>
-      </c>
-      <c r="F23" t="s">
-        <v>374</v>
-      </c>
-      <c r="G23" t="s">
-        <v>375</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:G23">
-    <sortCondition ref="G5"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/tu duy phan tich.xlsx
+++ b/public/tu duy phan tich.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="379">
   <si>
     <t>STT</t>
   </si>
@@ -1194,10 +1194,10 @@
     <t>Chương 1: Vũ khí ảnh hưởng</t>
   </si>
   <si>
-    <t>Thử máy</t>
-  </si>
-  <si>
-    <t>tóm tắt</t>
+    <t>Giả định, hiệu ứng, cảm linh. Giải pháp sáng tạo, tốt cùng xấu đây.</t>
+  </si>
+  <si>
+    <t>Giả định. hiệu ứng. cảm linh. Giải pháp sáng tạo, tốt cùng xấu đây.</t>
   </si>
 </sst>
 </file>
@@ -1588,13 +1588,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S759"/>
+  <dimension ref="A1:S758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1695,15 +1695,15 @@
         <v>16</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="300">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1723,16 +1723,16 @@
       <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>378</v>
+      <c r="M3" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>378</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1747,21 +1747,21 @@
         <v>22</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1782,15 +1782,15 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -1811,15 +1811,15 @@
         <v>16</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -1840,15 +1840,15 @@
         <v>16</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
@@ -1869,15 +1869,15 @@
         <v>16</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -1898,15 +1898,15 @@
         <v>16</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -1927,15 +1927,15 @@
         <v>16</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -1956,15 +1956,15 @@
         <v>16</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -1985,15 +1985,15 @@
         <v>16</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
@@ -2008,21 +2008,21 @@
         <v>22</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -2043,15 +2043,15 @@
         <v>16</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -2072,15 +2072,15 @@
         <v>16</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -2101,15 +2101,15 @@
         <v>16</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
@@ -2130,15 +2130,15 @@
         <v>16</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
@@ -2159,15 +2159,15 @@
         <v>16</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
@@ -2188,15 +2188,15 @@
         <v>16</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
@@ -2217,15 +2217,15 @@
         <v>16</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
@@ -2246,15 +2246,15 @@
         <v>16</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -2269,21 +2269,21 @@
         <v>22</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
@@ -2304,15 +2304,15 @@
         <v>16</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -2333,15 +2333,15 @@
         <v>16</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -2362,15 +2362,15 @@
         <v>16</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
@@ -2391,15 +2391,15 @@
         <v>16</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
         <v>20</v>
@@ -2420,15 +2420,15 @@
         <v>16</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
         <v>20</v>
@@ -2449,15 +2449,15 @@
         <v>16</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
         <v>20</v>
@@ -2478,15 +2478,15 @@
         <v>16</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
@@ -2507,15 +2507,15 @@
         <v>16</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -2536,15 +2536,15 @@
         <v>16</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
@@ -2565,15 +2565,15 @@
         <v>16</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
@@ -2588,21 +2588,21 @@
         <v>22</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
@@ -2623,15 +2623,15 @@
         <v>16</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
@@ -2652,15 +2652,15 @@
         <v>16</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>20</v>
@@ -2681,15 +2681,15 @@
         <v>16</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>20</v>
@@ -2710,15 +2710,15 @@
         <v>16</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
@@ -2739,15 +2739,15 @@
         <v>16</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
@@ -2768,15 +2768,15 @@
         <v>16</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -2797,15 +2797,15 @@
         <v>16</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
@@ -2826,15 +2826,15 @@
         <v>16</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
@@ -2855,15 +2855,15 @@
         <v>16</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
@@ -2878,21 +2878,21 @@
         <v>22</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
@@ -2913,15 +2913,15 @@
         <v>16</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
@@ -2942,15 +2942,15 @@
         <v>16</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
@@ -2971,15 +2971,15 @@
         <v>16</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -3000,15 +3000,15 @@
         <v>16</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
@@ -3029,15 +3029,15 @@
         <v>16</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s">
         <v>20</v>
@@ -3058,15 +3058,15 @@
         <v>16</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
         <v>20</v>
@@ -3087,15 +3087,15 @@
         <v>16</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -3116,15 +3116,15 @@
         <v>16</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
         <v>20</v>
@@ -3145,15 +3145,15 @@
         <v>16</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s">
         <v>20</v>
@@ -3168,21 +3168,21 @@
         <v>22</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s">
         <v>20</v>
@@ -3203,15 +3203,15 @@
         <v>16</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G55" t="s">
         <v>20</v>
@@ -3232,15 +3232,15 @@
         <v>16</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s">
         <v>20</v>
@@ -3261,15 +3261,15 @@
         <v>16</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G57" t="s">
         <v>20</v>
@@ -3290,15 +3290,15 @@
         <v>16</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G58" t="s">
         <v>20</v>
@@ -3319,15 +3319,15 @@
         <v>16</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G59" t="s">
         <v>20</v>
@@ -3348,15 +3348,15 @@
         <v>16</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
@@ -3377,15 +3377,15 @@
         <v>16</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G61" t="s">
         <v>20</v>
@@ -3406,15 +3406,15 @@
         <v>16</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G62" t="s">
         <v>20</v>
@@ -3429,21 +3429,21 @@
         <v>22</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G63" t="s">
         <v>20</v>
@@ -3464,15 +3464,15 @@
         <v>16</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G64" t="s">
         <v>20</v>
@@ -3493,15 +3493,15 @@
         <v>16</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G65" t="s">
         <v>20</v>
@@ -3522,15 +3522,15 @@
         <v>16</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G66" t="s">
         <v>20</v>
@@ -3551,15 +3551,15 @@
         <v>16</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G67" t="s">
         <v>20</v>
@@ -3580,15 +3580,15 @@
         <v>16</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G68" t="s">
         <v>20</v>
@@ -3609,15 +3609,15 @@
         <v>16</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
@@ -3638,15 +3638,15 @@
         <v>16</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
@@ -3667,15 +3667,15 @@
         <v>16</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G71" t="s">
         <v>20</v>
@@ -3690,21 +3690,21 @@
         <v>22</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G72" t="s">
         <v>20</v>
@@ -3725,15 +3725,15 @@
         <v>16</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G73" t="s">
         <v>20</v>
@@ -3754,15 +3754,15 @@
         <v>16</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G74" t="s">
         <v>20</v>
@@ -3783,15 +3783,15 @@
         <v>16</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
@@ -3812,15 +3812,15 @@
         <v>16</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G76" t="s">
         <v>20</v>
@@ -3841,15 +3841,15 @@
         <v>16</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G77" t="s">
         <v>20</v>
@@ -3870,15 +3870,15 @@
         <v>16</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s">
         <v>20</v>
@@ -3899,40 +3899,15 @@
         <v>16</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" t="s">
-        <v>21</v>
-      </c>
-      <c r="J79" t="s">
-        <v>22</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L79" t="s">
-        <v>16</v>
-      </c>
-      <c r="M79" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="N79" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1"/>
@@ -6649,10 +6624,6 @@
     <row r="758" spans="1:11">
       <c r="A758" s="1"/>
       <c r="K758" s="5"/>
-    </row>
-    <row r="759" spans="1:11">
-      <c r="A759" s="1"/>
-      <c r="K759" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/tu duy phan tich.xlsx
+++ b/public/tu duy phan tich.xlsx
@@ -8,14 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="phuong phap phan tich" sheetId="3" r:id="rId2"/>
-    <sheet name="thuyet phuc" sheetId="6" r:id="rId3"/>
-    <sheet name="36 kế" sheetId="4" r:id="rId4"/>
+    <sheet name="prompt" sheetId="7" r:id="rId2"/>
+    <sheet name="phuong phap phan tich" sheetId="3" r:id="rId3"/>
+    <sheet name="thuyet phuc" sheetId="6" r:id="rId4"/>
+    <sheet name="36 kế" sheetId="4" r:id="rId5"/>
+    <sheet name="101 bi quyet dam phan" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'phuong phap phan tich'!$D$1:$F$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'phuong phap phan tich'!$D$1:$F$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'thuyet phuc'!$A$1:$G$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'thuyet phuc'!$A$1:$G$23</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="571">
   <si>
     <t>STT</t>
   </si>
@@ -104,9 +106,6 @@
   </si>
   <si>
     <t>Loại</t>
-  </si>
-  <si>
-    <t>Dịch</t>
   </si>
   <si>
     <t>Chủ đề|Loại câu trắc nghiệm|Đáp án đúng|Câu trắc nghiệm|Phương án 1|Phương án 2|Phương án 3|Phương án 4</t>
@@ -504,9 +503,6 @@
     <t>Thừa cơ hội hỗn loạn để thao túng, hoặc tự tạo rối loạn để đạt mục đích</t>
   </si>
   <si>
-    <t>Vô trung sinh hữu</t>
-  </si>
-  <si>
     <t>Khi cần tạo cơ hội trong tình thế ổn định hoặc không có biến động</t>
   </si>
   <si>
@@ -522,18 +518,9 @@
     <t>Ra tay trước, hành động nhanh, bất ngờ để áp đảo và khống chế địch</t>
   </si>
   <si>
-    <t>Đả thảo kinh xà</t>
-  </si>
-  <si>
     <t>Khi cần thăm dò ý đồ hoặc làm đối phương lộ sơ hở</t>
   </si>
   <si>
-    <t>Hành động nhỏ để gây rối, khiến địch hoảng loạn và bộc lộ điểm yếu</t>
-  </si>
-  <si>
-    <t>Tá đao sát nhân</t>
-  </si>
-  <si>
     <t>Khi muốn loại bỏ địch mà không trực tiếp ra tay</t>
   </si>
   <si>
@@ -636,9 +623,6 @@
     <t>Bảo toàn lực lượng, chờ địch kiệt sức, rồi tấn công vào thời điểm yếu</t>
   </si>
   <si>
-    <t>Chỉ tang mạ hòe</t>
-  </si>
-  <si>
     <t>Khi không tiện công khai chỉ trích hoặc tấn công trực diện</t>
   </si>
   <si>
@@ -669,9 +653,6 @@
     <t>Giải quyết vấn đề từ gốc, triệt tiêu mầm mống để tránh hậu họa</t>
   </si>
   <si>
-    <t>Sát kê hách hầu</t>
-  </si>
-  <si>
     <t>Khi cần răn đe hoặc làm gương cho đối phương</t>
   </si>
   <si>
@@ -714,18 +695,12 @@
     <t>Tự hành hạ bản thân để lấy lòng tin, che giấu ý định thật</t>
   </si>
   <si>
-    <t>Phao chuyên dẫn ngọc</t>
-  </si>
-  <si>
     <t>Khi cần hy sinh thứ nhỏ để đạt được thứ lớn</t>
   </si>
   <si>
     <t>Dùng vật nhỏ làm mồi nhử để đổi lấy lợi ích lớn hơn</t>
   </si>
   <si>
-    <t>Tá thi hoàn hồn</t>
-  </si>
-  <si>
     <t>Khi thất bại và cần phục hồi bằng cách mượn lực lượng khác</t>
   </si>
   <si>
@@ -759,96 +734,24 @@
     <t>Kích động cảm xúc hoặc ý chí của đối phương để họ hành động theo ý ta</t>
   </si>
   <si>
-    <t>Thoái kế</t>
-  </si>
-  <si>
-    <t>Khi thất bại hoàn toàn, cần rút lui để tránh tổn thất thêm</t>
-  </si>
-  <si>
-    <t>Rút lui toàn diện, bảo toàn lực lượng tối đa để tránh bị tiêu diệt</t>
-  </si>
-  <si>
-    <t>dụ</t>
-  </si>
-  <si>
-    <t>gây hấn - chuyển dời</t>
-  </si>
-  <si>
-    <t>gây hấn - che dấu</t>
-  </si>
-  <si>
-    <t>gây hấn - dụ</t>
-  </si>
-  <si>
-    <t>nhận biết chờ chạy thuyết gây</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rút củi đáy nồi - Phủ để trùu tân </t>
-  </si>
-  <si>
-    <t>gây hấn</t>
-  </si>
-  <si>
-    <t>giả heo ăn hổ - Ban chư ngật hổ</t>
-  </si>
-  <si>
     <t>chạy</t>
   </si>
   <si>
     <t>thuyết</t>
   </si>
   <si>
-    <t>Thâu lương hoán trụ - Quá kiều trùu bản</t>
-  </si>
-  <si>
     <t>giả vờ</t>
   </si>
   <si>
-    <t>thí xe giữ tướng - Lý đại đào cương</t>
-  </si>
-  <si>
-    <t>gây hấn - bẫy</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
     <t>Ám độ trần thương</t>
   </si>
   <si>
-    <t>thăm dò</t>
-  </si>
-  <si>
-    <t>tin đồn, gây rối</t>
-  </si>
-  <si>
-    <t>tin đồn, gây rối, thích nghi</t>
-  </si>
-  <si>
     <t>thuận tay dắt dê - Thuận thủ khiên dương</t>
   </si>
   <si>
-    <t>thừa cơ</t>
-  </si>
-  <si>
-    <t>Muốn bắt phải thả - Dục cầm cố tung</t>
-  </si>
-  <si>
-    <t>ám độc bẫy dụ mượn vu</t>
-  </si>
-  <si>
-    <t>gây hấn - mượn</t>
-  </si>
-  <si>
-    <t>gây hấn - vu</t>
-  </si>
-  <si>
-    <t>vu oan giá họa - Di thế giá họa</t>
-  </si>
-  <si>
-    <t>chuyển dời  che dấu giả vờ ngụy trang</t>
-  </si>
-  <si>
     <t>Cách thuyết phục</t>
   </si>
   <si>
@@ -1194,10 +1097,685 @@
     <t>Chương 1: Vũ khí ảnh hưởng</t>
   </si>
   <si>
-    <t>Giả định, hiệu ứng, cảm linh. Giải pháp sáng tạo, tốt cùng xấu đây.</t>
-  </si>
-  <si>
-    <t>Giả định. hiệu ứng. cảm linh. Giải pháp sáng tạo, tốt cùng xấu đây.</t>
+    <t>Mục đích của bạn là mục tiêu mà bạn đang nỗ lực đạt đến, hoặc chức năng, động cơ và ý đồ.</t>
+  </si>
+  <si>
+    <t>Đâu là mục đích của bạn, của tôi, của họ khi làm?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đâu là mục tiêu của nhiệm vụ, công việc, thí nghiệm, chính sách, chiến lược, mối quan hệ, hành động này?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đâu là chức năng của (hệ thống cơ thể, máy móc, công cụ, chính sách kinh tế, cây cối, hệ sinh thái)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kinh nghiệm có thuyết phục không?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Những thông tin, dữ kiện, kinh nghiệm nào có liên quan đến vấn đề, mục tiêu này? </t>
+  </si>
+  <si>
+    <t>Thông tin thật hay giả?</t>
+  </si>
+  <si>
+    <t>Những ai bị ảnh hưởng?</t>
+  </si>
+  <si>
+    <t>Lợi ích của những người bị ảnh hưởng là gì?</t>
+  </si>
+  <si>
+    <t>Thiệt hại của những người bị ảnh hưởng là gì?</t>
+  </si>
+  <si>
+    <t>trong select-quiz-2.js, tạo dạng bài tập 1. Phân tích luận điểm – luận cứ</t>
+  </si>
+  <si>
+    <t>Mục tiêu: Rèn khả năng nhận diện, tách luận điểm – luận cứ.</t>
+  </si>
+  <si>
+    <t>✅ Gợi ý bài tập:</t>
+  </si>
+  <si>
+    <t>Đưa 1 đoạn văn → yêu cầu học sinh chỉ ra luận điểm chính và các luận cứ.</t>
+  </si>
+  <si>
+    <t>ChatGPT API xử lý và đưa feedback từng phần: đúng/sai, thiếu gì.</t>
+  </si>
+  <si>
+    <t>Câu hỏi phải đủ rõ ràng và chính xác để hướng đạo cho tư duy một cách hiệu quả.</t>
+  </si>
+  <si>
+    <t>Tên nguyên tắc hoặc bí quyết</t>
+  </si>
+  <si>
+    <t>Cách làm</t>
+  </si>
+  <si>
+    <t>Cách ứng phó</t>
+  </si>
+  <si>
+    <t>Ví dụ trong file đính kèm</t>
+  </si>
+  <si>
+    <t>Đó là giá thấp nhất à?</t>
+  </si>
+  <si>
+    <t>Khi đối tác đưa ra mức giá ban đầu và bạn muốn kiểm tra xem có thể thương lượng thêm không</t>
+  </si>
+  <si>
+    <t>Hỏi trực tiếp: "Đó là giá thấp nhất bạn có thể đưa ra à?" để kiểm tra sự linh hoạt trong giá cả</t>
+  </si>
+  <si>
+    <t>Trả lời bằng một câu hỏi khác hoặc nhấn mạnh rằng giá cần hợp lý hơn, ví dụ: "Giá đó có thể điều chỉnh thêm không?"</t>
+  </si>
+  <si>
+    <t>Tôi đi mua máy rửa bát. Sau khi xem xét nhiều mẫu khác nhau và tìm hiểu giá cả, tôi chuẩn bị mua hàng... Tôi tiến đến người bán hàng và nói: "Tôi vào một số nơi và tôi có thể mua loại máy này với một mức giá tốt hơn ở cửa hàng XYZ. Tôi muốn mua chiếc máy này nhưng tôi cần biết giá tốt nhất anh có thể bán cho tôi." Anh ta hỏi tôi: "Thế XYZ lấy giá bao nhiêu?"... Sau một hồi im lặng cuối cùng anh ta đưa ra mức giá thấp hơn bất cứ đâu.</t>
+  </si>
+  <si>
+    <t>Tham khảo ý kiến chuyên gia</t>
+  </si>
+  <si>
+    <t>Khi cần tăng uy tín hoặc cần thêm thông tin để củng cố lập luận</t>
+  </si>
+  <si>
+    <t>Đề cập đến ý kiến từ một chuyên gia hoặc nguồn đáng tin cậy để hỗ trợ lập trường của bạn</t>
+  </si>
+  <si>
+    <t>Chỉ ra rằng bạn cũng có thông tin từ nguồn đáng tin cậy hoặc yêu cầu thêm chi tiết về chuyên gia được đề cập</t>
+  </si>
+  <si>
+    <t>Không có ví dụ cụ thể trong tài liệu</t>
+  </si>
+  <si>
+    <t>Dùng câu hỏi hồng</t>
+  </si>
+  <si>
+    <t>Khi muốn dẫn dắt đối tác đến một câu trả lời cụ thể mà bạn mong muốn</t>
+  </si>
+  <si>
+    <t>Đặt câu hỏi có định hướng để đối tác trả lời theo cách có lợi cho bạn</t>
+  </si>
+  <si>
+    <t>Trả lời bằng cách đặt lại câu hỏi hoặc yêu cầu làm rõ để tránh bị dẫn dắt</t>
+  </si>
+  <si>
+    <t>Dùng câu hỏi mở</t>
+  </si>
+  <si>
+    <t>Khi cần thu thập thêm thông tin từ đối tác</t>
+  </si>
+  <si>
+    <t>Đặt câu hỏi mở để khuyến khích đối tác chia sẻ nhiều thông tin hơn</t>
+  </si>
+  <si>
+    <t>Trả lời ngắn gọn và kiểm soát thông tin bạn chia sẻ để tránh tiết lộ quá nhiều</t>
+  </si>
+  <si>
+    <t>Nhượng bộ từng phần nhỏ</t>
+  </si>
+  <si>
+    <t>Khi muốn thể hiện sự linh hoạt nhưng vẫn giữ lợi thế</t>
+  </si>
+  <si>
+    <t>Đưa ra nhượng bộ nhỏ và từ từ để tạo cảm giác bạn đã nhượng bộ nhiều</t>
+  </si>
+  <si>
+    <t>Nhấn mạnh rằng bạn cũng mong đợi nhượng bộ từ phía đối tác</t>
+  </si>
+  <si>
+    <t>Nhà đàm phán kinh nghiệm chỉ nhượng bộ dần dần và bạn phải tạo ấn tượng với đối tác rằng đã nhượng bộ nhiều lần.</t>
+  </si>
+  <si>
+    <t>Chia sẻ thuận lợi và khó khăn</t>
+  </si>
+  <si>
+    <t>Khi muốn xây dựng sự tin tưởng và đồng cảm với đối tác</t>
+  </si>
+  <si>
+    <t>Chia sẻ cả lợi ích và khó khăn của bạn để tạo sự cởi mở</t>
+  </si>
+  <si>
+    <t>Thừa nhận khó khăn của đối tác nhưng nhấn mạnh lợi ích chung để tiếp tục đàm phán</t>
+  </si>
+  <si>
+    <t>Tôi sẽ đồng ý với anh nếu chúng ta cùng...</t>
+  </si>
+  <si>
+    <t>Khi muốn đạt được thỏa thuận đôi bên cùng có lợi</t>
+  </si>
+  <si>
+    <t>Đề xuất một điều kiện mà cả hai bên đều được lợi nếu thỏa thuận được thực hiện</t>
+  </si>
+  <si>
+    <t>Đánh giá điều kiện được đề xuất và đề nghị điều chỉnh nếu cần thiết</t>
+  </si>
+  <si>
+    <t>Im lặng là vàng</t>
+  </si>
+  <si>
+    <t>Khi muốn tạo áp lực hoặc khiến đối tác tiết lộ thêm thông tin</t>
+  </si>
+  <si>
+    <t>Giữ im lặng sau khi đưa ra đề nghị hoặc câu hỏi để đối tác cảm thấy cần phải nói thêm</t>
+  </si>
+  <si>
+    <t>Phá vỡ sự im lặng bằng cách đặt câu hỏi hoặc chuyển hướng cuộc trò chuyện</t>
+  </si>
+  <si>
+    <t>Sau một hồi im lặng cuối cùng anh ta đưa ra mức giá thấp hơn bất cứ đâu.</t>
+  </si>
+  <si>
+    <t>Nói "Không" và bắt tay lên vũ khí</t>
+  </si>
+  <si>
+    <t>Khi đối tác đưa ra đề nghị không thể chấp nhận được</t>
+  </si>
+  <si>
+    <t>Nói "Không" một cách dứt khoát và chuẩn bị rời khỏi cuộc đàm phán nếu cần</t>
+  </si>
+  <si>
+    <t>Đề nghị quay lại bàn đàm phán với một đề xuất mới hoặc làm rõ lý do từ chối</t>
+  </si>
+  <si>
+    <t>Sao! Anh mua tay chịu à!</t>
+  </si>
+  <si>
+    <t>Khi muốn làm đối tác cảm thấy áp lực về tài chính</t>
+  </si>
+  <si>
+    <t>Chỉ ra rằng đề nghị của đối tác không hợp lý về mặt tài chính</t>
+  </si>
+  <si>
+    <t>Giải thích rõ ràng khả năng tài chính của bạn và yêu cầu đề nghị hợp lý hơn</t>
+  </si>
+  <si>
+    <t>Cấp trên quyết định</t>
+  </si>
+  <si>
+    <t>Khi muốn trì hoãn hoặc tránh đưa ra quyết định ngay lập tức</t>
+  </si>
+  <si>
+    <t>Nói rằng bạn cần tham khảo ý kiến cấp trên để có thêm thời gian suy nghĩ</t>
+  </si>
+  <si>
+    <t>Yêu cầu gặp trực tiếp người có thẩm quyền hoặc hỏi thời gian cụ thể để nhận quyết định</t>
+  </si>
+  <si>
+    <t>Người ủng hộ / Kẻ phản đối</t>
+  </si>
+  <si>
+    <t>Khi cần tạo áp lực bằng cách đề cập đến sự ủng hộ hoặc phản đối từ bên thứ ba</t>
+  </si>
+  <si>
+    <t>Đề cập đến một bên thứ ba (thực hoặc giả) ủng hộ hoặc phản đối để tăng sức mạnh lập luận</t>
+  </si>
+  <si>
+    <t>Kiểm tra tính xác thực của bên thứ ba được đề cập hoặc yêu cầu thêm thông tin</t>
+  </si>
+  <si>
+    <t>Như thế chưa được</t>
+  </si>
+  <si>
+    <t>Khi muốn từ chối đề nghị mà không làm mất lòng đối tác</t>
+  </si>
+  <si>
+    <t>Nói rằng đề nghị hiện tại chưa đáp ứng được yêu cầu của bạn</t>
+  </si>
+  <si>
+    <t>Đề xuất một giải pháp thay thế hoặc hỏi đối tác có thể cải thiện đề nghị như thế nào</t>
+  </si>
+  <si>
+    <t>Dự kiến và số liệu</t>
+  </si>
+  <si>
+    <t>Khi cần củng cố lập luận bằng dữ liệu</t>
+  </si>
+  <si>
+    <t>Đưa ra các số liệu hoặc dự đoán đáng tin cậy để hỗ trợ đề nghị của bạn</t>
+  </si>
+  <si>
+    <t>Kiểm tra tính chính xác của số liệu được đưa ra hoặc yêu cầu nguồn thông tin</t>
+  </si>
+  <si>
+    <t>Người bán xe sử dụng dữ kiện và số liệu, chẳng hạn như giá hàng trong quyển Những Trang xanh Kelly, để định giá chiếc xe của mình.</t>
+  </si>
+  <si>
+    <t>Nhượng bộ có điều kiện</t>
+  </si>
+  <si>
+    <t>Khi muốn nhượng bộ nhưng vẫn giữ lợi thế</t>
+  </si>
+  <si>
+    <t>Đưa ra nhượng bộ nhưng kèm theo điều kiện có lợi cho bạn</t>
+  </si>
+  <si>
+    <t>Đánh giá điều kiện và đề nghị điều chỉnh nếu cần thiết để đảm bảo công bằng</t>
+  </si>
+  <si>
+    <t>Cô đồng ý sẽ ký thư hứa vay với tỷ lệ lãi suất 8% nếu ngân hàng không tính phí định giá.</t>
+  </si>
+  <si>
+    <t>Tối hậu thư</t>
+  </si>
+  <si>
+    <t>Khi muốn đẩy nhanh quá trình đàm phán hoặc tạo áp lực</t>
+  </si>
+  <si>
+    <t>Đưa ra một đề nghị cuối cùng với thời hạn rõ ràng</t>
+  </si>
+  <si>
+    <t>Đánh giá tính khả thi của tối hậu thư và đề nghị kéo dài thời gian hoặc điều chỉnh</t>
+  </si>
+  <si>
+    <t>Ông David Stern đã đưa ra hạn cuối cùng là ngày 7 tháng 01 năm 1999 ông bầu và các cầu thủ phải thỏa thuận được với nhau.</t>
+  </si>
+  <si>
+    <t>Thêm một chút đường</t>
+  </si>
+  <si>
+    <t>Khi muốn làm dịu căng thẳng hoặc tạo cảm giác thân thiện</t>
+  </si>
+  <si>
+    <t>Đưa ra một lợi ích nhỏ hoặc cử chỉ thân thiện để làm mềm tình hình</t>
+  </si>
+  <si>
+    <t>Đón nhận cử chỉ nhưng giữ vững lập trường để tránh bị phân tâm</t>
+  </si>
+  <si>
+    <t>Làm rõ các quy ước cơ bản</t>
+  </si>
+  <si>
+    <t>Khi muốn đảm bảo cả hai bên hiểu rõ các điều khoản</t>
+  </si>
+  <si>
+    <t>Yêu cầu làm rõ các điều khoản cơ bản trước khi đi sâu vào chi tiết</t>
+  </si>
+  <si>
+    <t>Xác nhận lại các quy ước và đề nghị ghi chép bằng văn bản</t>
+  </si>
+  <si>
+    <t>Thay đổi mục tiêu</t>
+  </si>
+  <si>
+    <t>Khi muốn chuyển hướng cuộc đàm phán</t>
+  </si>
+  <si>
+    <t>Đề xuất thay đổi mục tiêu hoặc trọng tâm của cuộc đàm phán</t>
+  </si>
+  <si>
+    <t>Nhấn mạnh mục tiêu ban đầu và yêu cầu lý do cho sự thay đổi</t>
+  </si>
+  <si>
+    <t>Tách các điểm để thỏa thuận</t>
+  </si>
+  <si>
+    <t>Khi muốn đơn giản hóa các vấn đề phức tạp</t>
+  </si>
+  <si>
+    <t>Chia nhỏ các vấn đề để giải quyết từng phần một</t>
+  </si>
+  <si>
+    <t>Đồng ý giải quyết từng phần nhưng đảm bảo các phần liên kết với nhau</t>
+  </si>
+  <si>
+    <t>Giải quyết các vấn đề khó nhất sau cùng</t>
+  </si>
+  <si>
+    <t>Khi đối mặt với nhiều vấn đề trong đàm phán</t>
+  </si>
+  <si>
+    <t>Để các vấn đề khó giải quyết sau khi đã đạt được thỏa thuận về các vấn đề dễ</t>
+  </si>
+  <si>
+    <t>Đồng ý với cách tiếp cận nhưng yêu cầu thời gian cụ thể để giải quyết vấn đề khó</t>
+  </si>
+  <si>
+    <t>Bảo hành</t>
+  </si>
+  <si>
+    <t>Khi muốn tăng sự tin cậy cho đề nghị của bạn</t>
+  </si>
+  <si>
+    <t>Đưa ra cam kết bảo hành hoặc đảm bảo để tăng niềm tin</t>
+  </si>
+  <si>
+    <t>Kiểm tra chi tiết điều khoản bảo hành và yêu cầu rõ ràng bằng văn bản</t>
+  </si>
+  <si>
+    <t>Tìm kiếm nguyên nhân sâu xa</t>
+  </si>
+  <si>
+    <t>Khi muốn hiểu rõ động cơ thực sự của đối tác</t>
+  </si>
+  <si>
+    <t>Đặt câu hỏi để khám phá lý do thực sự đằng sau lập trường của đối tác</t>
+  </si>
+  <si>
+    <t>Chia sẻ thông tin một cách có kiểm soát và yêu cầu đối tác làm rõ</t>
+  </si>
+  <si>
+    <t>Thỏa thuận kiểu nhà hàng</t>
+  </si>
+  <si>
+    <t>Khi muốn đưa ra một gói thỏa thuận hấp dẫn</t>
+  </si>
+  <si>
+    <t>Đề xuất một gói thỏa thuận bao gồm nhiều yếu tố có lợi</t>
+  </si>
+  <si>
+    <t>Phân tích từng yếu tố trong gói và yêu cầu điều</t>
+  </si>
+  <si>
+    <t>thu phục</t>
+  </si>
+  <si>
+    <t>tập hợp đồng minh</t>
+  </si>
+  <si>
+    <t>vu oan giá họa</t>
+  </si>
+  <si>
+    <t>Kế li gián</t>
+  </si>
+  <si>
+    <t>Thả tép bắt tôm</t>
+  </si>
+  <si>
+    <t>tin đồn, gây rối-Vô trung sinh hữu</t>
+  </si>
+  <si>
+    <t>quan hệ 3 bên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giả heo ăn hổ </t>
+  </si>
+  <si>
+    <t>Rút củi đáy nồi</t>
+  </si>
+  <si>
+    <t>Thâu lương hoán trụ</t>
+  </si>
+  <si>
+    <t>mong</t>
+  </si>
+  <si>
+    <t>tính cách</t>
+  </si>
+  <si>
+    <t>thay mận đổi đào</t>
+  </si>
+  <si>
+    <t>Mượn lực lượng - mượn xác hoàn hồn</t>
+  </si>
+  <si>
+    <t>Giết gà dọa khỉ</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>Dùng nỗi sợ của địch để gây rối, khiến địch hoảng loạn và bộc lộ điểm yếu</t>
+  </si>
+  <si>
+    <t>kỹ năng</t>
+  </si>
+  <si>
+    <t>đánh lạc hướng</t>
+  </si>
+  <si>
+    <t>quan hệ 2 bên</t>
+  </si>
+  <si>
+    <t>Bên A mong muốn cái gì của B. Tết lộ A muốn hại B. Ngụy tạo bằng chứng thông đồng với C. Xúi giục A cướp của B. Tin đồn hành động khiến B nghi ngờ</t>
+  </si>
+  <si>
+    <t>Mượn đao giết người, Mượn hoàn cảnh, Mượn thời cơ</t>
+  </si>
+  <si>
+    <t>xúi giục phạm pháp, bắt cóc con tin</t>
+  </si>
+  <si>
+    <t>có mâu thuẫn về quan điểm, lợi ích</t>
+  </si>
+  <si>
+    <t>hãm hại người thân</t>
+  </si>
+  <si>
+    <t>địch có nhiều kẻ thù</t>
+  </si>
+  <si>
+    <t>Hóa thù thành bạn, Muốn bắt phải thả</t>
+  </si>
+  <si>
+    <t>khi đối phương có người thân yếu kém 1 mặt nào đó</t>
+  </si>
+  <si>
+    <t>Ám, độc, bẫy, dụ, phạm quy</t>
+  </si>
+  <si>
+    <t>tìm chứng cứ vi phạm pháp luật</t>
+  </si>
+  <si>
+    <t>Khi địch có điểm yếu pháp luật</t>
+  </si>
+  <si>
+    <t>Đánh rắn động cỏ</t>
+  </si>
+  <si>
+    <t>Chỉ tang mắng hòe</t>
+  </si>
+  <si>
+    <t>Điều kiện thi hành kế. Cách thi hành kế</t>
+  </si>
+  <si>
+    <t>Khi cần che giấu thực lực để đánh lừa địch. Giả vờ yếu kém, ngu ngốc để địch mất cảnh giác, rồi bất ngờ tấn công</t>
+  </si>
+  <si>
+    <t>Khi cần làm đối phương sợ hãi hoặc đánh giá sai thực lực. Thổi phồng lực lượng, tạo thanh thế lớn để uy hiếp tinh thần địch</t>
+  </si>
+  <si>
+    <t>Khi cần tiếp cận địch hoặc tạo lòng tin từ họ. Tự hành hạ bản thân để lấy lòng tin, che giấu ý định thật</t>
+  </si>
+  <si>
+    <t>Khi cần triệt hạ lực lượng địch từ gốc. Tập trung bắt hoặc loại bỏ lãnh đạo địch, làm tan rã lực lượng</t>
+  </si>
+  <si>
+    <t>Khi cần chiếm ưu thế trước đối thủ, tránh bị động. Ra tay trước, hành động nhanh, bất ngờ để áp đảo và khống chế địch</t>
+  </si>
+  <si>
+    <t>Khi địch mạnh nhưng có thể bị mệt mỏi hoặc phân tán. Bảo toàn lực lượng, chờ địch kiệt sức, rồi tấn công vào thời điểm yếu</t>
+  </si>
+  <si>
+    <t>Khi địch có điểm yếu pháp luật. tìm chứng cứ vi phạm pháp luật</t>
+  </si>
+  <si>
+    <t>Khi lực lượng yếu, đối mặt nguy cơ bị tấn công. Bỏ trống thành, tạo nghi ngờ để địch không dám tiến, hoặc dụ địch vào bẫy</t>
+  </si>
+  <si>
+    <t>Khi muốn kiểm soát đối phương lâu dài. Thả đối phương để tạo lòng tin, rồi dần dần kiểm soát hoặc thu phục</t>
+  </si>
+  <si>
+    <t>Khi thất bại và cần phục hồi bằng cách mượn lực lượng khác. Lợi dụng lực lượng hoặc cơ hội khác để khôi phục vị thế</t>
+  </si>
+  <si>
+    <t>Cần đánh lạc hướng địch, khi địch mạnh hoặc tập trung lực lượng. Tạo tin đồn, gây rối, phân tán lực lượng địch, bí mật tấn công vào điểm yếu</t>
+  </si>
+  <si>
+    <t>Khi cần vượt qua phòng tuyến địch mà không bị phát hiện. Đi qua con đường bất ngờ, bí mật, nơi địch không dự đoán</t>
+  </si>
+  <si>
+    <t>Khi cần hành động bí mật trong tình thế bất lợi. Tận dụng hoàn cảnh mù mờ hoặc tạo "sương mù" để che giấu ý định thật</t>
+  </si>
+  <si>
+    <t>Khi địch ở vị trí mạnh, khó tấn công trực diện. Lừa địch rời khỏi căn cứ bằng mưu kế, tạo cơ hội tấn công khi địch mất thế</t>
+  </si>
+  <si>
+    <t>Khi đã đạt mục tiêu và muốn loại bỏ đồng minh hoặc thuộc hạ. Sau khi thành công, cắt đứt hoặc loại bỏ những người từng hỗ trợ</t>
+  </si>
+  <si>
+    <t>Khi cần ngăn chặn vấn đề trước khi nó bùng phát. Giải quyết vấn đề từ gốc, triệt tiêu mầm mống để tránh hậu họa</t>
+  </si>
+  <si>
+    <t>Khi muốn loại bỏ địch mà không trực tiếp ra tay. Mượn tay người khác hoặc thế lực khác để tiêu diệt đối thủ</t>
+  </si>
+  <si>
+    <t>khi đối phương có người thân yếu kém 1 mặt nào đó. xúi giục phạm pháp, bắt cóc con tin</t>
+  </si>
+  <si>
+    <t>Khi cần làm hại địch mà không để lộ mình. Sử dụng vật chứng giả hoặc vu khống để đổ tội cho đối phương</t>
+  </si>
+  <si>
+    <t>có mâu thuẫn về quan điểm, lợi ích. Bên A mong muốn cái gì của B. Tết lộ A muốn hại B. Ngụy tạo bằng chứng thông đồng với C. Xúi giục A cướp của B. Tin đồn hành động khiến B nghi ngờ</t>
+  </si>
+  <si>
+    <t>Khi cần tạo cơ hội trong tình thế ổn định hoặc không có biến động. Gây rối, tung tin đồn, khuấy động tình hình để tạo cơ hội hành động</t>
+  </si>
+  <si>
+    <t>Khi có cơ hội bất ngờ hoặc nhỏ xuất hiện. Nhanh chóng nắm bắt cơ hội nhỏ để đạt lợi ích không dự tính</t>
+  </si>
+  <si>
+    <t>Khi tình hình rối loạn hoặc địch gặp nguy biến. Thừa cơ hội hỗn loạn để thao túng, hoặc tự tạo rối loạn để đạt mục đích</t>
+  </si>
+  <si>
+    <t>Khi địch đã suy yếu hoặc rơi vào thế bất lợi. Tấn công quyết liệt vào thời điểm địch không còn khả năng chống trả</t>
+  </si>
+  <si>
+    <t>Khi cần hy sinh thứ nhỏ để đạt được thứ lớn. Dùng vật nhỏ làm mồi nhử để đổi lấy lợi ích lớn hơn</t>
+  </si>
+  <si>
+    <t>Khi đối phương là người có quyền thế hoặc dễ bị ảnh hưởng bởi sắc đẹp. Sử dụng người đẹp để mê hoặc, làm suy yếu ý chí hoặc gây mất cảnh giác</t>
+  </si>
+  <si>
+    <t>Khi không tiện công khai chỉ trích hoặc tấn công trực diện. Gián tiếp phê phán hoặc tấn công bằng cách nhắm vào mục tiêu khác</t>
+  </si>
+  <si>
+    <t>Khi cần răn đe hoặc làm gương cho đối phương. Giết một đối tượng nhỏ để cảnh cáo, làm đối phương sợ hãi, phục tùng</t>
+  </si>
+  <si>
+    <t>Khi cần thăm dò ý đồ hoặc làm đối phương lộ sơ hở. Dùng nỗi sợ của địch để gây rối, khiến địch hoảng loạn và bộc lộ điểm yếu</t>
+  </si>
+  <si>
+    <t>Khi đối phương dễ bị kích động hoặc có tính tình bạo tháo. Chọc giận tướng địch bằng lời nói hoặc hành động để họ mất sáng suốt</t>
+  </si>
+  <si>
+    <t>Khi cần khơi dậy tinh thần hoặc hành động từ đối phương. Kích động cảm xúc hoặc ý chí của đối phương để họ hành động theo ý ta</t>
+  </si>
+  <si>
+    <t>Khi ở thế bất lợi, cần bảo toàn lực lượng. Chạy trốn hoặc rút lui có kế hoạch để bảo tồn sức mạnh, chờ cơ hội</t>
+  </si>
+  <si>
+    <t>Khi ở thế nguy cấp, cần thoát thân hoặc đánh lừa địch. Ngụy trang, tạo hình ảnh giả để lừa địch, thoát khỏi nguy hiểm</t>
+  </si>
+  <si>
+    <t>Khi cần bảo vệ mục tiêu quan trọng bằng cách hy sinh thứ yếu. Đưa đối tượng thay thế để chịu thiệt hại, bảo vệ mục tiêu chính</t>
+  </si>
+  <si>
+    <t>Số thứ tự_a_Tên kế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_giả vờ_giả heo ăn hổ </t>
+  </si>
+  <si>
+    <t>1_giả vờ_Hư trương thanh thế</t>
+  </si>
+  <si>
+    <t>1_giả vờ_Khổ nhục kế</t>
+  </si>
+  <si>
+    <t>2_kỹ năng_Cầm tặc cầm vương</t>
+  </si>
+  <si>
+    <t>2_kỹ năng_Tiên phát chế nhân</t>
+  </si>
+  <si>
+    <t>2_kỹ năng_Dĩ dật đãi lao</t>
+  </si>
+  <si>
+    <t>2_kỹ năng_Ám, độc, bẫy, dụ, phạm quy</t>
+  </si>
+  <si>
+    <t>2_kỹ năng_Không thành kế</t>
+  </si>
+  <si>
+    <t>3_thu phục_Hóa thù thành bạn, Muốn bắt phải thả</t>
+  </si>
+  <si>
+    <t>3_thu phục_Mượn lực lượng - mượn xác hoàn hồn</t>
+  </si>
+  <si>
+    <t>3_thu phục_tập hợp đồng minh</t>
+  </si>
+  <si>
+    <t>4_đánh lạc hướng_Dương đông kích tây</t>
+  </si>
+  <si>
+    <t>4_đánh lạc hướng_Ám độ trần thương</t>
+  </si>
+  <si>
+    <t>4_đánh lạc hướng_Man thiên quá hải</t>
+  </si>
+  <si>
+    <t>4_đánh lạc hướng_Điệu hổ ly sơn</t>
+  </si>
+  <si>
+    <t>5_quan hệ 2 bên_Thâu lương hoán trụ</t>
+  </si>
+  <si>
+    <t>5_quan hệ 2 bên_Rút củi đáy nồi</t>
+  </si>
+  <si>
+    <t>5_quan hệ 2 bên_Mượn đao giết người, Mượn hoàn cảnh, Mượn thời cơ</t>
+  </si>
+  <si>
+    <t>5_quan hệ 2 bên_hãm hại người thân</t>
+  </si>
+  <si>
+    <t>5_quan hệ 2 bên_vu oan giá họa</t>
+  </si>
+  <si>
+    <t>6_quan hệ 3 bên_Kế li gián</t>
+  </si>
+  <si>
+    <t>6_quan hệ 3 bên_tin đồn, gây rối-Vô trung sinh hữu</t>
+  </si>
+  <si>
+    <t>6_quan hệ 3 bên_thuận tay dắt dê - Thuận thủ khiên dương</t>
+  </si>
+  <si>
+    <t>6_quan hệ 3 bên_Sấn hỏa đả kiếp</t>
+  </si>
+  <si>
+    <t>6_quan hệ 3 bên_Lạc tỉnh hạ thạch</t>
+  </si>
+  <si>
+    <t>7_mong_Thả tép bắt tôm</t>
+  </si>
+  <si>
+    <t>7_mong_Mỹ nhân kế</t>
+  </si>
+  <si>
+    <t>8_lo_Chỉ tang mắng hòe</t>
+  </si>
+  <si>
+    <t>8_lo_Giết gà dọa khỉ</t>
+  </si>
+  <si>
+    <t>8_lo_Đánh rắn động cỏ</t>
+  </si>
+  <si>
+    <t>9_tính cách_Khích tướng kế</t>
+  </si>
+  <si>
+    <t>9_tính cách_Kích kế</t>
+  </si>
+  <si>
+    <t>10_chạy_Tẩu kế</t>
+  </si>
+  <si>
+    <t>10_chạy_Kim thiền thoát xác</t>
+  </si>
+  <si>
+    <t>10_chạy_thay mận đổi đào</t>
   </si>
 </sst>
 </file>
@@ -1588,13 +2166,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S758"/>
+  <dimension ref="A1:S736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="L79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1605,8 +2183,8 @@
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="29.140625" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="97.140625" style="7" customWidth="1"/>
     <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.85546875" customWidth="1"/>
     <col min="21" max="21" width="37.140625" customWidth="1"/>
@@ -1627,13 +2205,13 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>13</v>
@@ -1669,7 +2247,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1677,2303 +2255,2245 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>378</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="300">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>120</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>120</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>47</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M4" s="7"/>
       <c r="N4" s="7" t="s">
-        <v>47</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M5" s="7"/>
       <c r="N5" s="7" t="s">
-        <v>48</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>122</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M6" s="7"/>
       <c r="N6" s="7" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>122</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>122</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M10" s="7"/>
       <c r="N10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M11" s="7"/>
       <c r="N11" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M12" s="7"/>
       <c r="N12" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>108</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M13" s="7"/>
       <c r="N13" s="7" t="s">
-        <v>108</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>123</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M14" s="7"/>
       <c r="N14" s="7" t="s">
-        <v>27</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>123</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M15" s="7"/>
       <c r="N15" s="7" t="s">
-        <v>28</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>123</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M16" s="7"/>
       <c r="N16" s="7" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M17" s="7"/>
       <c r="N17" s="7" t="s">
-        <v>30</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M18" s="7"/>
       <c r="N18" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M19" s="7"/>
       <c r="N19" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
         <v>19</v>
       </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M20" s="7"/>
       <c r="N20" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M21" s="7"/>
       <c r="N21" s="7" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>57</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M22" s="7"/>
       <c r="N22" s="7" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L23" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M23" s="7"/>
       <c r="N23" s="7" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L24" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M24" s="7"/>
       <c r="N24" s="7" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M25" s="7"/>
       <c r="N25" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M26" s="7"/>
       <c r="N26" s="7" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M27" s="7"/>
       <c r="N27" s="7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>63</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M28" s="7"/>
       <c r="N28" s="7" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L29" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>64</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M29" s="7"/>
       <c r="N29" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L30" t="s">
-        <v>16</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>65</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M30" s="7"/>
       <c r="N30" s="7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L31" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>66</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M31" s="7"/>
       <c r="N31" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L32" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M32" s="7"/>
       <c r="N32" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L33" t="s">
-        <v>16</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M33" s="7"/>
       <c r="N33" s="7" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L34" t="s">
-        <v>16</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M34" s="7"/>
       <c r="N34" s="7" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L35" t="s">
-        <v>16</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M35" s="7"/>
       <c r="N35" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L36" t="s">
-        <v>16</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M36" s="7"/>
       <c r="N36" s="7" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L37" t="s">
-        <v>16</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M37" s="7"/>
       <c r="N37" s="7" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L38" t="s">
-        <v>16</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M38" s="7"/>
       <c r="N38" s="7" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L39" t="s">
-        <v>16</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M39" s="7"/>
       <c r="N39" s="7" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L40" t="s">
-        <v>16</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M40" s="7"/>
       <c r="N40" s="7" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L41" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M41" s="7"/>
       <c r="N41" s="7" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L42" t="s">
-        <v>16</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M42" s="7"/>
       <c r="N42" s="7" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L43" t="s">
-        <v>16</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>89</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M43" s="7"/>
       <c r="N43" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L44" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M44" s="7"/>
       <c r="N44" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L45" t="s">
-        <v>16</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>121</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M45" s="7"/>
       <c r="N45" s="7" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L46" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M46" s="7"/>
       <c r="N46" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L47" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>93</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M47" s="7"/>
       <c r="N47" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L48" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>94</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M48" s="7"/>
       <c r="N48" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L49" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>95</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M49" s="7"/>
       <c r="N49" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L50" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>96</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M50" s="7"/>
       <c r="N50" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L51" t="s">
-        <v>16</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M51" s="7"/>
       <c r="N51" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L52" t="s">
-        <v>16</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M52" s="7"/>
       <c r="N52" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L53" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M53" s="7"/>
       <c r="N53" s="7" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L54" t="s">
-        <v>16</v>
-      </c>
-      <c r="M54" s="7" t="s">
-        <v>70</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M54" s="7"/>
       <c r="N54" s="7" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L55" t="s">
-        <v>16</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M55" s="7"/>
       <c r="N55" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L56" t="s">
-        <v>16</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>72</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M56" s="7"/>
       <c r="N56" s="7" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
+      <c r="A57" s="1"/>
       <c r="H57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>127</v>
+        <v>536</v>
       </c>
       <c r="L57" t="s">
-        <v>16</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>73</v>
+        <v>21</v>
+      </c>
+      <c r="N57" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>127</v>
+        <v>537</v>
       </c>
       <c r="L58" t="s">
-        <v>16</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N58" s="7" t="s">
-        <v>74</v>
+        <v>21</v>
+      </c>
+      <c r="N58" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
+      <c r="A59" s="1"/>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>127</v>
+        <v>538</v>
       </c>
       <c r="L59" t="s">
-        <v>16</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>75</v>
+        <v>21</v>
+      </c>
+      <c r="N59" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
+      <c r="A60" s="1"/>
       <c r="H60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>127</v>
+        <v>539</v>
       </c>
       <c r="L60" t="s">
-        <v>16</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>76</v>
+        <v>21</v>
+      </c>
+      <c r="N60" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+      <c r="A61" s="1"/>
       <c r="H61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>127</v>
+        <v>540</v>
       </c>
       <c r="L61" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>77</v>
+        <v>21</v>
+      </c>
+      <c r="N61" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="H62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>128</v>
+        <v>541</v>
       </c>
       <c r="L62" t="s">
-        <v>16</v>
-      </c>
-      <c r="M62" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N62" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
+      </c>
+      <c r="N62" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+      <c r="A63" s="1"/>
       <c r="H63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>128</v>
+        <v>542</v>
       </c>
       <c r="L63" t="s">
-        <v>16</v>
-      </c>
-      <c r="M63" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N63" s="7" t="s">
-        <v>80</v>
+        <v>21</v>
+      </c>
+      <c r="N63" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
+      <c r="A64" s="1"/>
       <c r="H64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>128</v>
+        <v>543</v>
       </c>
       <c r="L64" t="s">
-        <v>16</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="N64" s="7" t="s">
-        <v>81</v>
+        <v>21</v>
+      </c>
+      <c r="N64" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+      <c r="A65" s="1"/>
       <c r="H65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>128</v>
+        <v>544</v>
       </c>
       <c r="L65" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="N65" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
+      <c r="A66" s="1"/>
       <c r="H66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>128</v>
+        <v>545</v>
       </c>
       <c r="L66" t="s">
-        <v>16</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="N66" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="H67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>128</v>
+        <v>546</v>
       </c>
       <c r="L67" t="s">
-        <v>16</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>84</v>
+        <v>21</v>
+      </c>
+      <c r="N67" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="H68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>128</v>
+        <v>547</v>
       </c>
       <c r="L68" t="s">
-        <v>16</v>
-      </c>
-      <c r="M68" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N68" s="7" t="s">
-        <v>85</v>
+        <v>21</v>
+      </c>
+      <c r="N68" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
+      <c r="A69" s="1"/>
       <c r="H69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>128</v>
+        <v>548</v>
       </c>
       <c r="L69" t="s">
-        <v>16</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N69" s="7" t="s">
-        <v>86</v>
+        <v>21</v>
+      </c>
+      <c r="N69" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
+      <c r="A70" s="1"/>
       <c r="H70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>128</v>
+        <v>549</v>
       </c>
       <c r="L70" t="s">
-        <v>16</v>
-      </c>
-      <c r="M70" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N70" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
+      </c>
+      <c r="N70" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
+      <c r="A71" s="1"/>
       <c r="H71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>129</v>
+        <v>550</v>
       </c>
       <c r="L71" t="s">
-        <v>16</v>
-      </c>
-      <c r="M71" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N71" s="7" t="s">
-        <v>100</v>
+        <v>21</v>
+      </c>
+      <c r="N71" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
+      <c r="A72" s="1"/>
       <c r="H72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>129</v>
+        <v>551</v>
       </c>
       <c r="L72" t="s">
-        <v>16</v>
-      </c>
-      <c r="M72" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N72" s="7" t="s">
-        <v>101</v>
+        <v>21</v>
+      </c>
+      <c r="N72" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="H73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>129</v>
+        <v>552</v>
       </c>
       <c r="L73" t="s">
-        <v>16</v>
-      </c>
-      <c r="M73" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="N73" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
+      </c>
+      <c r="N73" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
+      <c r="A74" s="1"/>
       <c r="H74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>129</v>
+        <v>551</v>
       </c>
       <c r="L74" t="s">
-        <v>16</v>
-      </c>
-      <c r="M74" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="N74" s="7" t="s">
-        <v>103</v>
+        <v>21</v>
+      </c>
+      <c r="N74" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
+      <c r="A75" s="1"/>
       <c r="H75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>129</v>
+        <v>553</v>
       </c>
       <c r="L75" t="s">
-        <v>16</v>
-      </c>
-      <c r="M75" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="N75" s="7" t="s">
-        <v>104</v>
+        <v>21</v>
+      </c>
+      <c r="N75" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
+      <c r="A76" s="1"/>
       <c r="H76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>129</v>
+        <v>554</v>
       </c>
       <c r="L76" t="s">
-        <v>16</v>
-      </c>
-      <c r="M76" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N76" s="7" t="s">
-        <v>105</v>
+        <v>21</v>
+      </c>
+      <c r="N76" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
+      <c r="A77" s="1"/>
       <c r="H77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>129</v>
+        <v>555</v>
       </c>
       <c r="L77" t="s">
-        <v>16</v>
-      </c>
-      <c r="M77" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N77" s="7" t="s">
-        <v>106</v>
+        <v>21</v>
+      </c>
+      <c r="N77" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
+      <c r="A78" s="1"/>
       <c r="H78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>129</v>
+        <v>556</v>
       </c>
       <c r="L78" t="s">
-        <v>16</v>
-      </c>
-      <c r="M78" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="N78" s="7" t="s">
-        <v>107</v>
+        <v>21</v>
+      </c>
+      <c r="N78" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1"/>
-      <c r="K79" s="5"/>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="L79" t="s">
+        <v>21</v>
+      </c>
+      <c r="N79" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1"/>
-      <c r="K80" s="5"/>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="H80" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="L80" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1"/>
-      <c r="K81" s="5"/>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="H81" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="L81" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1"/>
-      <c r="K82" s="5"/>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="H82" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="L82" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1"/>
-      <c r="K83" s="5"/>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="H83" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="L83" t="s">
+        <v>21</v>
+      </c>
+      <c r="N83" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1"/>
-      <c r="K84" s="5"/>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="H84" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="L84" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1"/>
-      <c r="K85" s="5"/>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="L85" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1"/>
-      <c r="K86" s="5"/>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="H86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="L86" t="s">
+        <v>21</v>
+      </c>
+      <c r="N86" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1"/>
-      <c r="K87" s="5"/>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="H87" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s">
+        <v>21</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="L87" t="s">
+        <v>21</v>
+      </c>
+      <c r="N87" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1"/>
-      <c r="K88" s="5"/>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="H88" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="L88" t="s">
+        <v>21</v>
+      </c>
+      <c r="N88" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1"/>
-      <c r="K89" s="5"/>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="H89" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="L89" t="s">
+        <v>21</v>
+      </c>
+      <c r="N89" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1"/>
-      <c r="K90" s="5"/>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="H90" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="L90" t="s">
+        <v>21</v>
+      </c>
+      <c r="N90" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1"/>
-      <c r="K91" s="5"/>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="H91" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="L91" t="s">
+        <v>21</v>
+      </c>
+      <c r="N91" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1"/>
-      <c r="K92" s="5"/>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="H92" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" t="s">
+        <v>21</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="L92" t="s">
+        <v>21</v>
+      </c>
+      <c r="N92" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:14">
       <c r="A94" s="1"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:14">
       <c r="A95" s="1"/>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:14">
       <c r="A96" s="1"/>
       <c r="K96" s="5"/>
     </row>
@@ -6536,94 +7056,6 @@
     <row r="736" spans="1:11">
       <c r="A736" s="1"/>
       <c r="K736" s="5"/>
-    </row>
-    <row r="737" spans="1:11">
-      <c r="A737" s="1"/>
-      <c r="K737" s="5"/>
-    </row>
-    <row r="738" spans="1:11">
-      <c r="A738" s="1"/>
-      <c r="K738" s="5"/>
-    </row>
-    <row r="739" spans="1:11">
-      <c r="A739" s="1"/>
-      <c r="K739" s="5"/>
-    </row>
-    <row r="740" spans="1:11">
-      <c r="A740" s="1"/>
-      <c r="K740" s="5"/>
-    </row>
-    <row r="741" spans="1:11">
-      <c r="A741" s="1"/>
-      <c r="K741" s="5"/>
-    </row>
-    <row r="742" spans="1:11">
-      <c r="A742" s="1"/>
-      <c r="K742" s="5"/>
-    </row>
-    <row r="743" spans="1:11">
-      <c r="A743" s="1"/>
-      <c r="K743" s="5"/>
-    </row>
-    <row r="744" spans="1:11">
-      <c r="A744" s="1"/>
-      <c r="K744" s="5"/>
-    </row>
-    <row r="745" spans="1:11">
-      <c r="A745" s="1"/>
-      <c r="K745" s="5"/>
-    </row>
-    <row r="746" spans="1:11">
-      <c r="A746" s="1"/>
-      <c r="K746" s="5"/>
-    </row>
-    <row r="747" spans="1:11">
-      <c r="A747" s="1"/>
-      <c r="K747" s="5"/>
-    </row>
-    <row r="748" spans="1:11">
-      <c r="A748" s="1"/>
-      <c r="K748" s="5"/>
-    </row>
-    <row r="749" spans="1:11">
-      <c r="A749" s="1"/>
-      <c r="K749" s="5"/>
-    </row>
-    <row r="750" spans="1:11">
-      <c r="A750" s="1"/>
-      <c r="K750" s="5"/>
-    </row>
-    <row r="751" spans="1:11">
-      <c r="A751" s="1"/>
-      <c r="K751" s="5"/>
-    </row>
-    <row r="752" spans="1:11">
-      <c r="A752" s="1"/>
-      <c r="K752" s="5"/>
-    </row>
-    <row r="753" spans="1:11">
-      <c r="A753" s="1"/>
-      <c r="K753" s="5"/>
-    </row>
-    <row r="754" spans="1:11">
-      <c r="A754" s="1"/>
-      <c r="K754" s="5"/>
-    </row>
-    <row r="755" spans="1:11">
-      <c r="A755" s="1"/>
-      <c r="K755" s="5"/>
-    </row>
-    <row r="756" spans="1:11">
-      <c r="A756" s="1"/>
-      <c r="K756" s="5"/>
-    </row>
-    <row r="757" spans="1:11">
-      <c r="A757" s="1"/>
-      <c r="K757" s="5"/>
-    </row>
-    <row r="758" spans="1:11">
-      <c r="A758" s="1"/>
-      <c r="K758" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6634,9 +7066,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -6650,22 +7122,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45">
@@ -6676,16 +7148,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6696,16 +7168,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6716,16 +7188,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6736,16 +7208,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6756,16 +7228,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6776,16 +7248,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -6796,16 +7268,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6816,16 +7288,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6836,16 +7308,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -6856,16 +7328,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6876,16 +7348,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -6896,16 +7368,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6916,16 +7388,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6936,16 +7408,16 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6956,16 +7428,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6976,16 +7448,16 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6996,16 +7468,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30">
@@ -7016,16 +7488,16 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="60">
@@ -7036,16 +7508,16 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7056,16 +7528,16 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7076,16 +7548,16 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7096,16 +7568,16 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7116,16 +7588,16 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7136,16 +7608,16 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7156,16 +7628,16 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7176,16 +7648,16 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7196,16 +7668,16 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7216,16 +7688,16 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7236,16 +7708,16 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45">
@@ -7256,16 +7728,16 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7276,16 +7748,16 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7296,16 +7768,16 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7316,16 +7788,16 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7336,16 +7808,16 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7356,16 +7828,16 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7376,16 +7848,16 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7396,16 +7868,16 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7416,16 +7888,16 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7436,16 +7908,16 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="60">
@@ -7456,16 +7928,16 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="E41" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
@@ -7476,16 +7948,16 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7496,16 +7968,16 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30">
@@ -7516,16 +7988,16 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30">
@@ -7536,16 +8008,16 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30">
@@ -7556,16 +8028,16 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30">
@@ -7576,16 +8048,16 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7596,16 +8068,16 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30">
@@ -7616,16 +8088,16 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30">
@@ -7636,16 +8108,16 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="45">
@@ -7656,16 +8128,16 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="E51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7676,16 +8148,16 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7696,16 +8168,16 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7716,16 +8188,16 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7736,16 +8208,16 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30">
@@ -7756,16 +8228,16 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7776,16 +8248,16 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7796,16 +8268,16 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="30">
@@ -7816,16 +8288,16 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="45">
@@ -7836,16 +8308,16 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="E60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30">
@@ -7856,16 +8328,16 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7876,16 +8348,16 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7896,16 +8368,16 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7916,16 +8388,16 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7936,16 +8408,16 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7956,16 +8428,16 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7976,16 +8448,16 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30">
@@ -7996,16 +8468,16 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="75">
@@ -8016,16 +8488,16 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D69" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="E69" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8036,16 +8508,16 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8056,16 +8528,16 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8076,16 +8548,16 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8096,16 +8568,16 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8116,16 +8588,16 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8136,16 +8608,16 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="30">
@@ -8156,16 +8628,16 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -8177,7 +8649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -8194,25 +8666,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="E1" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="G1" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8220,22 +8692,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8243,22 +8715,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8266,22 +8738,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8289,22 +8761,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="F5" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8312,22 +8784,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="G6" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8335,22 +8807,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="G7" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8358,22 +8830,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="D8" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="G8" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8381,22 +8853,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="D9" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="E9" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="F9" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8404,22 +8876,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="F10" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="G10" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8427,22 +8899,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="F11" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="G11" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8450,22 +8922,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="D12" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="E12" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="F12" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="G12" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8473,22 +8945,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="D13" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="E13" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="G13" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8496,22 +8968,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="D14" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="E14" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="F14" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="G14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8519,22 +8991,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="D15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" t="s">
         <v>304</v>
-      </c>
-      <c r="E15" t="s">
-        <v>335</v>
-      </c>
-      <c r="F15" t="s">
-        <v>336</v>
-      </c>
-      <c r="G15" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8542,22 +9014,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="D16" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="E16" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="F16" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="G16" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8565,22 +9037,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="C17" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="E17" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="F17" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="G17" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -8588,22 +9060,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="C18" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="E18" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="F18" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="G18" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8611,22 +9083,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="D19" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="E19" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="F19" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="G19" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8634,22 +9106,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="C20" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="D20" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="E20" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="F20" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="G20" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -8657,22 +9129,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="D21" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="E21" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="F21" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="G21" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -8680,22 +9152,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="C22" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="D22" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="E22" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="F22" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="G22" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -8703,22 +9175,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="C23" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="E23" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="F23" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="G23" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -8726,12 +9198,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8741,626 +9213,870 @@
     <col min="5" max="5" width="65.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="H3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="H4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="H6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F8" t="s">
+        <v>496</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="H8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="H9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="H10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D11" t="s">
+        <v>480</v>
+      </c>
+      <c r="E11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="H11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D12" t="s">
+        <v>468</v>
+      </c>
+      <c r="E12" t="s">
+        <v>492</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="H12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H13" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>485</v>
+      </c>
+      <c r="D14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="H14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="H15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>485</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="H16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>486</v>
+      </c>
+      <c r="D17" t="s">
+        <v>476</v>
+      </c>
+      <c r="E17" t="s">
         <v>178</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F17" t="s">
         <v>179</v>
       </c>
-      <c r="F2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>24</v>
-      </c>
-      <c r="B5" s="8">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>35</v>
-      </c>
-      <c r="B11" s="8">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" t="s">
-        <v>250</v>
-      </c>
-      <c r="E16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17" s="8">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="H17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>486</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>475</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>195</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="H18" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>486</v>
+      </c>
+      <c r="D19" t="s">
+        <v>476</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="H19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>486</v>
+      </c>
+      <c r="D20" t="s">
+        <v>488</v>
+      </c>
+      <c r="E20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="H20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>486</v>
+      </c>
+      <c r="D21" t="s">
+        <v>491</v>
+      </c>
+      <c r="E21" t="s">
+        <v>494</v>
+      </c>
+      <c r="F21" t="s">
+        <v>489</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="H21" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D22" t="s">
+        <v>469</v>
+      </c>
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="H22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>473</v>
+      </c>
+      <c r="D23" t="s">
+        <v>470</v>
+      </c>
+      <c r="E23" t="s">
+        <v>490</v>
+      </c>
+      <c r="F23" t="s">
+        <v>487</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="H23" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B19" s="8">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>473</v>
+      </c>
+      <c r="D24" t="s">
+        <v>472</v>
+      </c>
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="H24" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>473</v>
+      </c>
+      <c r="D25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="H25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="H26" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>473</v>
+      </c>
+      <c r="D27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="H27" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>477</v>
+      </c>
+      <c r="D28" t="s">
+        <v>471</v>
+      </c>
+      <c r="E28" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="H28" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>477</v>
+      </c>
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="H29" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D30" t="s">
+        <v>499</v>
+      </c>
+      <c r="E30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="H30" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D31" t="s">
+        <v>481</v>
+      </c>
+      <c r="E31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" t="s">
         <v>197</v>
       </c>
-      <c r="E19" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>30</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8">
-        <v>4</v>
-      </c>
-      <c r="B21" s="8">
-        <v>20</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>28</v>
-      </c>
-      <c r="B23" s="8">
-        <v>22</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" t="s">
-        <v>254</v>
-      </c>
-      <c r="E23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8">
-        <v>5</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8">
-        <v>7</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>243</v>
-      </c>
-      <c r="D27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" t="s">
-        <v>173</v>
-      </c>
-      <c r="F27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>21</v>
-      </c>
-      <c r="D29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" t="s">
-        <v>192</v>
-      </c>
-      <c r="F29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>202</v>
-      </c>
-      <c r="E30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>205</v>
-      </c>
-      <c r="E31" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="H31" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>243</v>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>482</v>
       </c>
       <c r="D32" t="s">
-        <v>247</v>
+        <v>498</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="F32" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>483</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="H32" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>235</v>
+        <v>478</v>
       </c>
       <c r="D33" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>158</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="H33" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>478</v>
       </c>
       <c r="D34" t="s">
         <v>220</v>
@@ -9371,83 +10087,665 @@
       <c r="F34" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="H34" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D35" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="H35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
         <v>223</v>
       </c>
-      <c r="E35" t="s">
-        <v>224</v>
-      </c>
-      <c r="F35" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>244</v>
-      </c>
       <c r="D36" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="F36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>169</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="H36" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D37" t="s">
-        <v>232</v>
+        <v>479</v>
       </c>
       <c r="E37" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="F37" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="H37" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="D38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="D40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="C41" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="C42" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="C43" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="C44" t="s">
-        <v>253</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F37">
-    <sortCondition ref="B17"/>
+  <sortState ref="A2:F43">
+    <sortCondition ref="A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="106.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" t="s">
+        <v>397</v>
+      </c>
+      <c r="E9" t="s">
+        <v>398</v>
+      </c>
+      <c r="F9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" t="s">
+        <v>410</v>
+      </c>
+      <c r="E12" t="s">
+        <v>411</v>
+      </c>
+      <c r="F12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D13" t="s">
+        <v>414</v>
+      </c>
+      <c r="E13" t="s">
+        <v>415</v>
+      </c>
+      <c r="F13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C14" t="s">
+        <v>417</v>
+      </c>
+      <c r="D14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E14" t="s">
+        <v>419</v>
+      </c>
+      <c r="F14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F15" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D16" t="s">
+        <v>427</v>
+      </c>
+      <c r="E16" t="s">
+        <v>428</v>
+      </c>
+      <c r="F16" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>430</v>
+      </c>
+      <c r="C17" t="s">
+        <v>431</v>
+      </c>
+      <c r="D17" t="s">
+        <v>432</v>
+      </c>
+      <c r="E17" t="s">
+        <v>433</v>
+      </c>
+      <c r="F17" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>435</v>
+      </c>
+      <c r="C18" t="s">
+        <v>436</v>
+      </c>
+      <c r="D18" t="s">
+        <v>437</v>
+      </c>
+      <c r="E18" t="s">
+        <v>438</v>
+      </c>
+      <c r="F18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C19" t="s">
+        <v>440</v>
+      </c>
+      <c r="D19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E19" t="s">
+        <v>442</v>
+      </c>
+      <c r="F19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C20" t="s">
+        <v>444</v>
+      </c>
+      <c r="D20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E20" t="s">
+        <v>446</v>
+      </c>
+      <c r="F20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D21" t="s">
+        <v>449</v>
+      </c>
+      <c r="E21" t="s">
+        <v>450</v>
+      </c>
+      <c r="F21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>451</v>
+      </c>
+      <c r="C22" t="s">
+        <v>452</v>
+      </c>
+      <c r="D22" t="s">
+        <v>453</v>
+      </c>
+      <c r="E22" t="s">
+        <v>454</v>
+      </c>
+      <c r="F22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>455</v>
+      </c>
+      <c r="C23" t="s">
+        <v>456</v>
+      </c>
+      <c r="D23" t="s">
+        <v>457</v>
+      </c>
+      <c r="E23" t="s">
+        <v>458</v>
+      </c>
+      <c r="F23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>459</v>
+      </c>
+      <c r="C24" t="s">
+        <v>460</v>
+      </c>
+      <c r="D24" t="s">
+        <v>461</v>
+      </c>
+      <c r="E24" t="s">
+        <v>462</v>
+      </c>
+      <c r="F24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>463</v>
+      </c>
+      <c r="C25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>